--- a/raw_data/20200818_saline/20200818_Sensor2_Test_58.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_58.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A976D79C-FC40-42A0-8053-4CCB71AE85B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>51670.362099</v>
+        <v>51670.362098999998</v>
       </c>
       <c r="B2" s="1">
         <v>14.352878</v>
       </c>
       <c r="C2" s="1">
-        <v>1238.490000</v>
+        <v>1238.49</v>
       </c>
       <c r="D2" s="1">
-        <v>-279.423000</v>
+        <v>-279.423</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>51680.738902</v>
+        <v>51680.738901999997</v>
       </c>
       <c r="G2" s="1">
-        <v>14.355761</v>
+        <v>14.355760999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1261.530000</v>
+        <v>1261.53</v>
       </c>
       <c r="I2" s="1">
-        <v>-244.875000</v>
+        <v>-244.875</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>51691.201015</v>
+        <v>51691.201014999999</v>
       </c>
       <c r="L2" s="1">
-        <v>14.358667</v>
+        <v>14.358667000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1296.300000</v>
+        <v>1296.3</v>
       </c>
       <c r="N2" s="1">
-        <v>-194.611000</v>
+        <v>-194.61099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>51702.029207</v>
@@ -526,677 +942,677 @@
         <v>14.361675</v>
       </c>
       <c r="R2" s="1">
-        <v>1309.280000</v>
+        <v>1309.28</v>
       </c>
       <c r="S2" s="1">
-        <v>-179.166000</v>
+        <v>-179.166</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>51712.288463</v>
+        <v>51712.288462999997</v>
       </c>
       <c r="V2" s="1">
         <v>14.364525</v>
       </c>
       <c r="W2" s="1">
-        <v>1323.800000</v>
+        <v>1323.8</v>
       </c>
       <c r="X2" s="1">
-        <v>-167.978000</v>
+        <v>-167.97800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>51722.167283</v>
+        <v>51722.167283000002</v>
       </c>
       <c r="AA2" s="1">
         <v>14.367269</v>
       </c>
       <c r="AB2" s="1">
-        <v>1342.460000</v>
+        <v>1342.46</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.397000</v>
+        <v>-167.39699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>51732.446833</v>
+        <v>51732.446833000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.370124</v>
+        <v>14.370124000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1355.850000</v>
+        <v>1355.85</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.573000</v>
+        <v>-177.57300000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>51742.880675</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.373022</v>
+        <v>14.373022000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM2" s="1">
-        <v>-207.714000</v>
+        <v>-207.714</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>51753.129511</v>
+        <v>51753.129510999999</v>
       </c>
       <c r="AP2" s="1">
         <v>14.375869</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1398.940000</v>
+        <v>1398.94</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.537000</v>
+        <v>-251.53700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>51763.752343</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.378820</v>
+        <v>14.378819999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1423.660000</v>
+        <v>1423.66</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.375000</v>
+        <v>-311.375</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>51774.835465</v>
+        <v>51774.835464999996</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.381899</v>
+        <v>14.381899000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1443.160000</v>
+        <v>1443.16</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.229000</v>
+        <v>-363.22899999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>51785.820863</v>
+        <v>51785.820863000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.384950</v>
+        <v>14.38495</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.870000</v>
+        <v>1528.87</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.059000</v>
+        <v>-610.05899999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>51796.808236</v>
+        <v>51796.808235999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>14.388002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1684.010000</v>
+        <v>1684.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1051.630000</v>
+        <v>-1051.6300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>51808.191390</v>
+        <v>51808.19139</v>
       </c>
       <c r="BO2" s="1">
         <v>14.391164</v>
       </c>
       <c r="BP2" s="1">
-        <v>1979.410000</v>
+        <v>1979.41</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1815.010000</v>
+        <v>-1815.01</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>51818.535961</v>
+        <v>51818.535961000001</v>
       </c>
       <c r="BT2" s="1">
         <v>14.394038</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.950000</v>
+        <v>2367.9499999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2691.970000</v>
+        <v>-2691.97</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>51829.319986</v>
+        <v>51829.319986000002</v>
       </c>
       <c r="BY2" s="1">
         <v>14.397033</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2850.650000</v>
+        <v>2850.65</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3653.180000</v>
+        <v>-3653.18</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>51840.652093</v>
+        <v>51840.652092999997</v>
       </c>
       <c r="CD2" s="1">
         <v>14.400181</v>
       </c>
       <c r="CE2" s="1">
-        <v>4275.170000</v>
+        <v>4275.17</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5956.830000</v>
+        <v>-5956.83</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>51670.707812</v>
+        <v>51670.707812000001</v>
       </c>
       <c r="B3" s="1">
         <v>14.352974</v>
       </c>
       <c r="C3" s="1">
-        <v>1238.540000</v>
+        <v>1238.54</v>
       </c>
       <c r="D3" s="1">
-        <v>-279.815000</v>
+        <v>-279.815</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>51681.112390</v>
+        <v>51681.112390000002</v>
       </c>
       <c r="G3" s="1">
         <v>14.355865</v>
       </c>
       <c r="H3" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="I3" s="1">
-        <v>-244.902000</v>
+        <v>-244.90199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>51691.899911</v>
       </c>
       <c r="L3" s="1">
-        <v>14.358861</v>
+        <v>14.358860999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1296.350000</v>
+        <v>1296.3499999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-194.157000</v>
+        <v>-194.15700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>51702.139289</v>
+        <v>51702.139288999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.361705</v>
+        <v>14.361705000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1309.290000</v>
+        <v>1309.29</v>
       </c>
       <c r="S3" s="1">
-        <v>-179.142000</v>
+        <v>-179.142</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>51712.692203</v>
+        <v>51712.692202999999</v>
       </c>
       <c r="V3" s="1">
         <v>14.364637</v>
       </c>
       <c r="W3" s="1">
-        <v>1323.850000</v>
+        <v>1323.85</v>
       </c>
       <c r="X3" s="1">
-        <v>-167.944000</v>
+        <v>-167.94399999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>51722.523406</v>
       </c>
       <c r="AA3" s="1">
-        <v>14.367368</v>
+        <v>14.367368000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1342.340000</v>
+        <v>1342.34</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.498000</v>
+        <v>-167.49799999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>51732.800977</v>
+        <v>51732.800976999999</v>
       </c>
       <c r="AF3" s="1">
         <v>14.370222</v>
       </c>
       <c r="AG3" s="1">
-        <v>1356.000000</v>
+        <v>1356</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.603000</v>
+        <v>-177.60300000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>51743.263127</v>
+        <v>51743.263126999998</v>
       </c>
       <c r="AK3" s="1">
         <v>14.373129</v>
       </c>
       <c r="AL3" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM3" s="1">
-        <v>-207.718000</v>
+        <v>-207.71799999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>51753.546149</v>
+        <v>51753.546149000002</v>
       </c>
       <c r="AP3" s="1">
         <v>14.375985</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1398.940000</v>
+        <v>1398.94</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.565000</v>
+        <v>-251.565</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>51764.176408</v>
+        <v>51764.176407999999</v>
       </c>
       <c r="AU3" s="1">
         <v>14.378938</v>
       </c>
       <c r="AV3" s="1">
-        <v>1423.640000</v>
+        <v>1423.64</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.352000</v>
+        <v>-311.35199999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>51775.255080</v>
+        <v>51775.255080000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.382015</v>
+        <v>14.382015000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1443.150000</v>
+        <v>1443.15</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.218000</v>
+        <v>-363.21800000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>51786.184395</v>
+        <v>51786.184394999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>14.385051</v>
+        <v>14.385051000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.820000</v>
+        <v>1528.82</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.084000</v>
+        <v>-610.08399999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>51797.187675</v>
+        <v>51797.187675000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.388108</v>
+        <v>14.388108000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1051.770000</v>
+        <v>-1051.77</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>51808.616956</v>
+        <v>51808.616955999998</v>
       </c>
       <c r="BO3" s="1">
         <v>14.391282</v>
       </c>
       <c r="BP3" s="1">
-        <v>1979.240000</v>
+        <v>1979.24</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1815.200000</v>
+        <v>-1815.2</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>51819.036452</v>
       </c>
       <c r="BT3" s="1">
-        <v>14.394177</v>
+        <v>14.394177000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2367.090000</v>
+        <v>2367.09</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2691.960000</v>
+        <v>-2691.96</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>51829.804091</v>
+        <v>51829.804090999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.397168</v>
+        <v>14.397168000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2850.820000</v>
+        <v>2850.82</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3652.660000</v>
+        <v>-3652.66</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>51841.187250</v>
+        <v>51841.187250000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.400330</v>
+        <v>14.40033</v>
       </c>
       <c r="CE3" s="1">
-        <v>4272.870000</v>
+        <v>4272.87</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5959.220000</v>
+        <v>-5959.22</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>51671.374482</v>
+        <v>51671.374481999999</v>
       </c>
       <c r="B4" s="1">
-        <v>14.353160</v>
+        <v>14.353160000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1238.500000</v>
+        <v>1238.5</v>
       </c>
       <c r="D4" s="1">
-        <v>-279.291000</v>
+        <v>-279.291</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>51681.783973</v>
+        <v>51681.783972999998</v>
       </c>
       <c r="G4" s="1">
-        <v>14.356051</v>
+        <v>14.356051000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1261.600000</v>
+        <v>1261.5999999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-246.581000</v>
+        <v>-246.58099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>51692.278326</v>
       </c>
       <c r="L4" s="1">
-        <v>14.358966</v>
+        <v>14.358966000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1296.530000</v>
+        <v>1296.53</v>
       </c>
       <c r="N4" s="1">
-        <v>-194.289000</v>
+        <v>-194.28899999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>51702.476569</v>
+        <v>51702.476568999999</v>
       </c>
       <c r="Q4" s="1">
         <v>14.361799</v>
       </c>
       <c r="R4" s="1">
-        <v>1309.260000</v>
+        <v>1309.26</v>
       </c>
       <c r="S4" s="1">
-        <v>-179.149000</v>
+        <v>-179.149</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>51713.035435</v>
+        <v>51713.035434999998</v>
       </c>
       <c r="V4" s="1">
         <v>14.364732</v>
       </c>
       <c r="W4" s="1">
-        <v>1323.810000</v>
+        <v>1323.81</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.028000</v>
+        <v>-168.02799999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>51722.866111</v>
+        <v>51722.866111000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.367463</v>
+        <v>14.367463000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1342.370000</v>
+        <v>1342.37</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.424000</v>
+        <v>-167.42400000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>51733.143751</v>
+        <v>51733.143751000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.370318</v>
+        <v>14.370317999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1355.970000</v>
+        <v>1355.97</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.615000</v>
+        <v>-177.61500000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>51743.685187</v>
+        <v>51743.685187000003</v>
       </c>
       <c r="AK4" s="1">
         <v>14.373246</v>
       </c>
       <c r="AL4" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM4" s="1">
-        <v>-207.730000</v>
+        <v>-207.73</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>51753.879461</v>
+        <v>51753.879460999997</v>
       </c>
       <c r="AP4" s="1">
         <v>14.376078</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1398.930000</v>
+        <v>1398.93</v>
       </c>
       <c r="AR4" s="1">
-        <v>-251.544000</v>
+        <v>-251.54400000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>51764.500791</v>
+        <v>51764.500790999999</v>
       </c>
       <c r="AU4" s="1">
         <v>14.379028</v>
       </c>
       <c r="AV4" s="1">
-        <v>1423.670000</v>
+        <v>1423.67</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.356000</v>
+        <v>-311.35599999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>51775.612666</v>
+        <v>51775.612666000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>14.382115</v>
+        <v>14.382115000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1443.110000</v>
+        <v>1443.11</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.203000</v>
+        <v>-363.20299999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>51786.545483</v>
+        <v>51786.545483000002</v>
       </c>
       <c r="BE4" s="1">
         <v>14.385152</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.870000</v>
+        <v>1528.87</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.084000</v>
+        <v>-610.08399999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>51797.565099</v>
+        <v>51797.565098999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.388213</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.860000</v>
+        <v>1683.86</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1051.670000</v>
+        <v>-1051.67</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>51809.039053</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.391400</v>
+        <v>14.391400000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1979.150000</v>
+        <v>1979.15</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1815.290000</v>
+        <v>-1815.29</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>51819.469953</v>
@@ -1205,255 +1621,255 @@
         <v>14.394297</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.380000</v>
+        <v>2366.38</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2692.160000</v>
+        <v>-2692.16</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>51830.260912</v>
+        <v>51830.260911999998</v>
       </c>
       <c r="BY4" s="1">
         <v>14.397295</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2850.730000</v>
+        <v>2850.73</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3652.830000</v>
+        <v>-3652.83</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>51841.714993</v>
+        <v>51841.714993000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.400476</v>
+        <v>14.400475999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4260.830000</v>
+        <v>4260.83</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5944.400000</v>
+        <v>-5944.4</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>51671.740977</v>
+        <v>51671.740977000001</v>
       </c>
       <c r="B5" s="1">
         <v>14.353261</v>
       </c>
       <c r="C5" s="1">
-        <v>1238.260000</v>
+        <v>1238.26</v>
       </c>
       <c r="D5" s="1">
-        <v>-279.664000</v>
+        <v>-279.66399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>51682.143076</v>
       </c>
       <c r="G5" s="1">
-        <v>14.356151</v>
+        <v>14.356151000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1261.720000</v>
+        <v>1261.72</v>
       </c>
       <c r="I5" s="1">
-        <v>-245.419000</v>
+        <v>-245.41900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>51692.624535</v>
+        <v>51692.624535000003</v>
       </c>
       <c r="L5" s="1">
         <v>14.359062</v>
       </c>
       <c r="M5" s="1">
-        <v>1296.220000</v>
+        <v>1296.22</v>
       </c>
       <c r="N5" s="1">
-        <v>-194.227000</v>
+        <v>-194.227</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>51702.828233</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.361897</v>
+        <v>14.361897000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1309.200000</v>
+        <v>1309.2</v>
       </c>
       <c r="S5" s="1">
-        <v>-179.081000</v>
+        <v>-179.08099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>51713.379628</v>
+        <v>51713.379628000002</v>
       </c>
       <c r="V5" s="1">
-        <v>14.364828</v>
+        <v>14.364827999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1323.610000</v>
+        <v>1323.61</v>
       </c>
       <c r="X5" s="1">
-        <v>-167.986000</v>
+        <v>-167.98599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>51723.289199</v>
+        <v>51723.289198999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.367580</v>
+        <v>14.36758</v>
       </c>
       <c r="AB5" s="1">
-        <v>1342.280000</v>
+        <v>1342.28</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.364000</v>
+        <v>-167.364</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>51733.829185</v>
+        <v>51733.829185000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>14.370508</v>
+        <v>14.370507999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1355.950000</v>
+        <v>1355.95</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.619000</v>
+        <v>-177.619</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>51743.984771</v>
+        <v>51743.984771000003</v>
       </c>
       <c r="AK5" s="1">
         <v>14.373329</v>
       </c>
       <c r="AL5" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM5" s="1">
-        <v>-207.739000</v>
+        <v>-207.739</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>51754.239558</v>
+        <v>51754.239558000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>14.376178</v>
+        <v>14.376177999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1398.890000</v>
+        <v>1398.89</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.541000</v>
+        <v>-251.541</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>51764.866342</v>
+        <v>51764.866342000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.379130</v>
+        <v>14.37913</v>
       </c>
       <c r="AV5" s="1">
-        <v>1423.660000</v>
+        <v>1423.66</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.319000</v>
+        <v>-311.31900000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>51775.969785</v>
+        <v>51775.969785000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.382214</v>
+        <v>14.382213999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1443.150000</v>
+        <v>1443.15</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.193000</v>
+        <v>-363.19299999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>51787.268650</v>
+        <v>51787.268649999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>14.385352</v>
+        <v>14.385351999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.059000</v>
+        <v>-610.05899999999997</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>51798.313067</v>
+        <v>51798.313067000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.388420</v>
+        <v>14.38842</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.850000</v>
+        <v>1683.85</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1051.700000</v>
+        <v>-1051.7</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>51809.437849</v>
+        <v>51809.437849000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.391511</v>
+        <v>14.391510999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1979.120000</v>
+        <v>1979.12</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1815.330000</v>
+        <v>-1815.33</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>51819.897998</v>
@@ -1462,195 +1878,195 @@
         <v>14.394416</v>
       </c>
       <c r="BU5" s="1">
-        <v>2365.900000</v>
+        <v>2365.9</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2692.420000</v>
+        <v>-2692.42</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>51830.703807</v>
+        <v>51830.703806999998</v>
       </c>
       <c r="BY5" s="1">
         <v>14.397418</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2850.450000</v>
+        <v>2850.45</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3652.430000</v>
+        <v>-3652.43</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>51842.560175</v>
+        <v>51842.560174999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.400711</v>
+        <v>14.400710999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4274.500000</v>
+        <v>4274.5</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5954.180000</v>
+        <v>-5954.18</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>51672.081269</v>
+        <v>51672.081269000002</v>
       </c>
       <c r="B6" s="1">
         <v>14.353356</v>
       </c>
       <c r="C6" s="1">
-        <v>1238.570000</v>
+        <v>1238.57</v>
       </c>
       <c r="D6" s="1">
-        <v>-279.251000</v>
+        <v>-279.25099999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>51682.486307</v>
+        <v>51682.486306999999</v>
       </c>
       <c r="G6" s="1">
-        <v>14.356246</v>
+        <v>14.356246000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="I6" s="1">
-        <v>-246.050000</v>
+        <v>-246.05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>51692.972760</v>
+        <v>51692.972759999997</v>
       </c>
       <c r="L6" s="1">
         <v>14.359159</v>
       </c>
       <c r="M6" s="1">
-        <v>1296.490000</v>
+        <v>1296.49</v>
       </c>
       <c r="N6" s="1">
-        <v>-194.170000</v>
+        <v>-194.17</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>51703.253841</v>
+        <v>51703.253840999998</v>
       </c>
       <c r="Q6" s="1">
         <v>14.362015</v>
       </c>
       <c r="R6" s="1">
-        <v>1309.190000</v>
+        <v>1309.19</v>
       </c>
       <c r="S6" s="1">
-        <v>-179.193000</v>
+        <v>-179.19300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>51713.797755</v>
       </c>
       <c r="V6" s="1">
-        <v>14.364944</v>
+        <v>14.364943999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1323.680000</v>
+        <v>1323.68</v>
       </c>
       <c r="X6" s="1">
-        <v>-167.919000</v>
+        <v>-167.91900000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>51723.578893</v>
+        <v>51723.578892999998</v>
       </c>
       <c r="AA6" s="1">
         <v>14.367661</v>
       </c>
       <c r="AB6" s="1">
-        <v>1342.240000</v>
+        <v>1342.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.592000</v>
+        <v>-167.59200000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>51734.173904</v>
+        <v>51734.173904000003</v>
       </c>
       <c r="AF6" s="1">
         <v>14.370604</v>
       </c>
       <c r="AG6" s="1">
-        <v>1356.070000</v>
+        <v>1356.07</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.654000</v>
+        <v>-177.654</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>51744.334449</v>
+        <v>51744.334449000002</v>
       </c>
       <c r="AK6" s="1">
         <v>14.373426</v>
       </c>
       <c r="AL6" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM6" s="1">
-        <v>-207.718000</v>
+        <v>-207.71799999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>51754.599195</v>
+        <v>51754.599195000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.376278</v>
+        <v>14.376277999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1398.920000</v>
+        <v>1398.92</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.532000</v>
+        <v>-251.53200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>51765.227467</v>
+        <v>51765.227466999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.379230</v>
+        <v>14.37923</v>
       </c>
       <c r="AV6" s="1">
-        <v>1423.700000</v>
+        <v>1423.7</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.338000</v>
+        <v>-311.33800000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>51776.688488</v>
@@ -1659,106 +2075,106 @@
         <v>14.382413</v>
       </c>
       <c r="BA6" s="1">
-        <v>1443.120000</v>
+        <v>1443.12</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.203000</v>
+        <v>-363.20299999999997</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>51787.657016</v>
+        <v>51787.657015999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.385460</v>
+        <v>14.38546</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.870000</v>
+        <v>1528.87</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.080000</v>
+        <v>-610.08000000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>51798.690521</v>
+        <v>51798.690520999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.388525</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1051.710000</v>
+        <v>-1051.71</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>51809.856955</v>
+        <v>51809.856955000003</v>
       </c>
       <c r="BO6" s="1">
         <v>14.391627</v>
       </c>
       <c r="BP6" s="1">
-        <v>1979.000000</v>
+        <v>1979</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1815.130000</v>
+        <v>-1815.13</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>51820.629566</v>
+        <v>51820.629566000003</v>
       </c>
       <c r="BT6" s="1">
         <v>14.394619</v>
       </c>
       <c r="BU6" s="1">
-        <v>2365.450000</v>
+        <v>2365.4499999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2692.670000</v>
+        <v>-2692.67</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>51831.428499</v>
+        <v>51831.428499000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.397619</v>
+        <v>14.397619000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2849.740000</v>
+        <v>2849.74</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3652.790000</v>
+        <v>-3652.79</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>51842.790322</v>
+        <v>51842.790322000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.400775</v>
+        <v>14.400774999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4272.530000</v>
+        <v>4272.53</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5952.770000</v>
+        <v>-5952.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>51672.429462</v>
       </c>
@@ -1766,58 +2182,58 @@
         <v>14.353453</v>
       </c>
       <c r="C7" s="1">
-        <v>1238.470000</v>
+        <v>1238.47</v>
       </c>
       <c r="D7" s="1">
-        <v>-279.574000</v>
+        <v>-279.57400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>51682.912408</v>
+        <v>51682.912407999997</v>
       </c>
       <c r="G7" s="1">
         <v>14.356365</v>
       </c>
       <c r="H7" s="1">
-        <v>1260.550000</v>
+        <v>1260.55</v>
       </c>
       <c r="I7" s="1">
-        <v>-245.893000</v>
+        <v>-245.893</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>51693.396837</v>
       </c>
       <c r="L7" s="1">
-        <v>14.359277</v>
+        <v>14.359277000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1296.270000</v>
+        <v>1296.27</v>
       </c>
       <c r="N7" s="1">
-        <v>-193.986000</v>
+        <v>-193.98599999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>51703.522137</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.362089</v>
+        <v>14.362088999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1309.240000</v>
+        <v>1309.24</v>
       </c>
       <c r="S7" s="1">
-        <v>-179.116000</v>
+        <v>-179.11600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>51714.068109</v>
@@ -1826,497 +2242,497 @@
         <v>14.365019</v>
       </c>
       <c r="W7" s="1">
-        <v>1323.650000</v>
+        <v>1323.65</v>
       </c>
       <c r="X7" s="1">
-        <v>-167.976000</v>
+        <v>-167.976</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>51723.929534</v>
+        <v>51723.929534000003</v>
       </c>
       <c r="AA7" s="1">
         <v>14.367758</v>
       </c>
       <c r="AB7" s="1">
-        <v>1342.350000</v>
+        <v>1342.35</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.432000</v>
+        <v>-167.43199999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>51734.519118</v>
+        <v>51734.519117999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>14.370700</v>
+        <v>14.370699999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1355.860000</v>
+        <v>1355.86</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.674000</v>
+        <v>-177.67400000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>51744.681189</v>
+        <v>51744.681189000003</v>
       </c>
       <c r="AK7" s="1">
         <v>14.373523</v>
       </c>
       <c r="AL7" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM7" s="1">
-        <v>-207.713000</v>
+        <v>-207.71299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>51755.319844</v>
+        <v>51755.319843999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.376478</v>
+        <v>14.376478000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1398.890000</v>
+        <v>1398.89</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.568000</v>
+        <v>-251.56800000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>51765.960021</v>
+        <v>51765.960020999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.379433</v>
+        <v>14.379433000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1423.640000</v>
+        <v>1423.64</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.369000</v>
+        <v>-311.36900000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>51777.074902</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.382521</v>
+        <v>14.382521000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1443.120000</v>
+        <v>1443.12</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.229000</v>
+        <v>-363.22899999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>51788.019097</v>
+        <v>51788.019096999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.385561</v>
+        <v>14.385560999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.092000</v>
+        <v>-610.09199999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>51799.067513</v>
+        <v>51799.067513000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.388630</v>
+        <v>14.388629999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.790000</v>
+        <v>1683.79</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1051.700000</v>
+        <v>-1051.7</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>51810.566234</v>
+        <v>51810.566233999998</v>
       </c>
       <c r="BO7" s="1">
         <v>14.391824</v>
       </c>
       <c r="BP7" s="1">
-        <v>1979.150000</v>
+        <v>1979.15</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1815.260000</v>
+        <v>-1815.26</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>51820.741164</v>
+        <v>51820.741163999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.394650</v>
+        <v>14.39465</v>
       </c>
       <c r="BU7" s="1">
-        <v>2364.580000</v>
+        <v>2364.58</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2692.910000</v>
+        <v>-2692.91</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>51831.550509</v>
+        <v>51831.550509000001</v>
       </c>
       <c r="BY7" s="1">
         <v>14.397653</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.040000</v>
+        <v>2850.04</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3652.580000</v>
+        <v>-3652.58</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>51843.312110</v>
+        <v>51843.312109999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>14.400920</v>
+        <v>14.400919999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4260.120000</v>
+        <v>4260.12</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5945.730000</v>
+        <v>-5945.73</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>51672.857014</v>
+        <v>51672.857014000001</v>
       </c>
       <c r="B8" s="1">
-        <v>14.353571</v>
+        <v>14.353571000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-279.183000</v>
+        <v>-279.18299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>51683.191154</v>
       </c>
       <c r="G8" s="1">
-        <v>14.356442</v>
+        <v>14.356441999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1261.080000</v>
+        <v>1261.08</v>
       </c>
       <c r="I8" s="1">
-        <v>-244.896000</v>
+        <v>-244.89599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>51693.680052</v>
+        <v>51693.680052000003</v>
       </c>
       <c r="L8" s="1">
         <v>14.359356</v>
       </c>
       <c r="M8" s="1">
-        <v>1296.500000</v>
+        <v>1296.5</v>
       </c>
       <c r="N8" s="1">
-        <v>-194.380000</v>
+        <v>-194.38</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>51703.879786</v>
+        <v>51703.879785999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>14.362189</v>
+        <v>14.362189000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1309.300000</v>
+        <v>1309.3</v>
       </c>
       <c r="S8" s="1">
-        <v>-179.073000</v>
+        <v>-179.07300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>51714.415273</v>
+        <v>51714.415272999999</v>
       </c>
       <c r="V8" s="1">
-        <v>14.365115</v>
+        <v>14.365114999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1323.570000</v>
+        <v>1323.57</v>
       </c>
       <c r="X8" s="1">
-        <v>-167.852000</v>
+        <v>-167.852</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>51724.280204</v>
+        <v>51724.280204000002</v>
       </c>
       <c r="AA8" s="1">
         <v>14.367856</v>
       </c>
       <c r="AB8" s="1">
-        <v>1342.320000</v>
+        <v>1342.32</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.365000</v>
+        <v>-167.36500000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>51735.205583</v>
+        <v>51735.205583000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.370890</v>
+        <v>14.370889999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1355.980000</v>
+        <v>1355.98</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.603000</v>
+        <v>-177.60300000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>51745.377569</v>
+        <v>51745.377568999997</v>
       </c>
       <c r="AK8" s="1">
         <v>14.373716</v>
       </c>
       <c r="AL8" s="1">
-        <v>1377.030000</v>
+        <v>1377.03</v>
       </c>
       <c r="AM8" s="1">
-        <v>-207.725000</v>
+        <v>-207.72499999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>51755.677954</v>
+        <v>51755.677953999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.376577</v>
+        <v>14.376576999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1398.920000</v>
+        <v>1398.92</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.580000</v>
+        <v>-251.58</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>51766.347894</v>
+        <v>51766.347893999999</v>
       </c>
       <c r="AU8" s="1">
         <v>14.379541</v>
       </c>
       <c r="AV8" s="1">
-        <v>1423.660000</v>
+        <v>1423.66</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.326000</v>
+        <v>-311.32600000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>51777.430999</v>
+        <v>51777.430998999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>14.382620</v>
+        <v>14.382619999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1443.100000</v>
+        <v>1443.1</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.181000</v>
+        <v>-363.18099999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>51788.685752</v>
+        <v>51788.685751999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>14.385746</v>
+        <v>14.385745999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.820000</v>
+        <v>1528.82</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.067000</v>
+        <v>-610.06700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>51799.757914</v>
+        <v>51799.757914000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>14.388822</v>
+        <v>14.388821999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1051.650000</v>
+        <v>-1051.6500000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>51810.675354</v>
+        <v>51810.675353999999</v>
       </c>
       <c r="BO8" s="1">
         <v>14.391854</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.980000</v>
+        <v>1978.98</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1815.340000</v>
+        <v>-1815.34</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>51821.179627</v>
+        <v>51821.179626999998</v>
       </c>
       <c r="BT8" s="1">
         <v>14.394772</v>
       </c>
       <c r="BU8" s="1">
-        <v>2364.490000</v>
+        <v>2364.4899999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2693.370000</v>
+        <v>-2693.37</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>51831.997906</v>
+        <v>51831.997905999997</v>
       </c>
       <c r="BY8" s="1">
         <v>14.397777</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.040000</v>
+        <v>2850.04</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3652.580000</v>
+        <v>-3652.58</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>51843.829960</v>
+        <v>51843.829960000003</v>
       </c>
       <c r="CD8" s="1">
         <v>14.401064</v>
       </c>
       <c r="CE8" s="1">
-        <v>4267.180000</v>
+        <v>4267.18</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5941.810000</v>
+        <v>-5941.81</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>51673.133247</v>
+        <v>51673.133246999998</v>
       </c>
       <c r="B9" s="1">
         <v>14.353648</v>
       </c>
       <c r="C9" s="1">
-        <v>1238.320000</v>
+        <v>1238.32</v>
       </c>
       <c r="D9" s="1">
-        <v>-278.970000</v>
+        <v>-278.97000000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>51683.537362</v>
+        <v>51683.537362000003</v>
       </c>
       <c r="G9" s="1">
         <v>14.356538</v>
       </c>
       <c r="H9" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="I9" s="1">
-        <v>-245.179000</v>
+        <v>-245.179</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>51694.021764</v>
+        <v>51694.021763999997</v>
       </c>
       <c r="L9" s="1">
-        <v>14.359450</v>
+        <v>14.359450000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1296.120000</v>
+        <v>1296.1199999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-194.109000</v>
+        <v>-194.10900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>51704.227477</v>
@@ -2325,240 +2741,240 @@
         <v>14.362285</v>
       </c>
       <c r="R9" s="1">
-        <v>1309.350000</v>
+        <v>1309.3499999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-179.183000</v>
+        <v>-179.18299999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>51714.761482</v>
+        <v>51714.761482000002</v>
       </c>
       <c r="V9" s="1">
         <v>14.365212</v>
       </c>
       <c r="W9" s="1">
-        <v>1323.640000</v>
+        <v>1323.64</v>
       </c>
       <c r="X9" s="1">
-        <v>-167.630000</v>
+        <v>-167.63</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>51724.974639</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.368049</v>
+        <v>14.368048999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1342.450000</v>
+        <v>1342.45</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.279000</v>
+        <v>-167.279</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>51735.547357</v>
+        <v>51735.547357000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.370985</v>
+        <v>14.370984999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1355.920000</v>
+        <v>1355.92</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.670000</v>
+        <v>-177.67</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>51745.725766</v>
+        <v>51745.725766000003</v>
       </c>
       <c r="AK9" s="1">
         <v>14.373813</v>
       </c>
       <c r="AL9" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM9" s="1">
-        <v>-207.734000</v>
+        <v>-207.73400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>51756.038578</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.376677</v>
+        <v>14.376677000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1398.930000</v>
+        <v>1398.93</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.561000</v>
+        <v>-251.56100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>51766.709513</v>
+        <v>51766.709513000002</v>
       </c>
       <c r="AU9" s="1">
         <v>14.379642</v>
       </c>
       <c r="AV9" s="1">
-        <v>1423.630000</v>
+        <v>1423.63</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.314000</v>
+        <v>-311.31400000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>51778.102121</v>
+        <v>51778.102121000004</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.382806</v>
       </c>
       <c r="BA9" s="1">
-        <v>1443.110000</v>
+        <v>1443.11</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.222000</v>
+        <v>-363.22199999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>51789.102889</v>
+        <v>51789.102889000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.385862</v>
+        <v>14.385861999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.870000</v>
+        <v>1528.87</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.020000</v>
+        <v>-610.02</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>51800.194392</v>
+        <v>51800.194391999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.388943</v>
+        <v>14.388942999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.870000</v>
+        <v>1683.87</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1051.600000</v>
+        <v>-1051.5999999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>51811.098203</v>
+        <v>51811.098203000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.391972</v>
+        <v>14.391972000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.990000</v>
+        <v>1978.99</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1815.100000</v>
+        <v>-1815.1</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>51821.609195</v>
+        <v>51821.609194999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.394891</v>
+        <v>14.394890999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.100000</v>
+        <v>2364.1</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2693.880000</v>
+        <v>-2693.88</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>51832.428397</v>
+        <v>51832.428397000003</v>
       </c>
       <c r="BY9" s="1">
         <v>14.397897</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2849.740000</v>
+        <v>2849.74</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3652.230000</v>
+        <v>-3652.23</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>51844.381519</v>
+        <v>51844.381519000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.401217</v>
+        <v>14.401217000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4271.550000</v>
+        <v>4271.55</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5950.890000</v>
+        <v>-5950.89</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>51673.474495</v>
+        <v>51673.474495000002</v>
       </c>
       <c r="B10" s="1">
         <v>14.353743</v>
       </c>
       <c r="C10" s="1">
-        <v>1239.010000</v>
+        <v>1239.01</v>
       </c>
       <c r="D10" s="1">
-        <v>-279.466000</v>
+        <v>-279.46600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>51683.882546</v>
+        <v>51683.882546000001</v>
       </c>
       <c r="G10" s="1">
         <v>14.356634</v>
       </c>
       <c r="H10" s="1">
-        <v>1261.300000</v>
+        <v>1261.3</v>
       </c>
       <c r="I10" s="1">
-        <v>-245.315000</v>
+        <v>-245.315</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>51694.371476</v>
@@ -2567,148 +2983,148 @@
         <v>14.359548</v>
       </c>
       <c r="M10" s="1">
-        <v>1296.250000</v>
+        <v>1296.25</v>
       </c>
       <c r="N10" s="1">
-        <v>-194.236000</v>
+        <v>-194.23599999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>51704.926341</v>
+        <v>51704.926340999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.362480</v>
+        <v>14.36248</v>
       </c>
       <c r="R10" s="1">
-        <v>1309.270000</v>
+        <v>1309.27</v>
       </c>
       <c r="S10" s="1">
-        <v>-179.133000</v>
+        <v>-179.13300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>51715.444480</v>
+        <v>51715.444479999998</v>
       </c>
       <c r="V10" s="1">
         <v>14.365401</v>
       </c>
       <c r="W10" s="1">
-        <v>1323.920000</v>
+        <v>1323.92</v>
       </c>
       <c r="X10" s="1">
-        <v>-167.712000</v>
+        <v>-167.71199999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>51725.321803</v>
+        <v>51725.321802999999</v>
       </c>
       <c r="AA10" s="1">
         <v>14.368145</v>
       </c>
       <c r="AB10" s="1">
-        <v>1342.320000</v>
+        <v>1342.32</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.347000</v>
+        <v>-167.34700000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>51735.891086</v>
+        <v>51735.891086000003</v>
       </c>
       <c r="AF10" s="1">
         <v>14.371081</v>
       </c>
       <c r="AG10" s="1">
-        <v>1355.750000</v>
+        <v>1355.75</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.522000</v>
+        <v>-177.52199999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>51746.076895</v>
+        <v>51746.076894999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.373910</v>
+        <v>14.37391</v>
       </c>
       <c r="AL10" s="1">
-        <v>1377.000000</v>
+        <v>1377</v>
       </c>
       <c r="AM10" s="1">
-        <v>-207.713000</v>
+        <v>-207.71299999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>51756.706658</v>
+        <v>51756.706658000003</v>
       </c>
       <c r="AP10" s="1">
         <v>14.376863</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1398.930000</v>
+        <v>1398.93</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.561000</v>
+        <v>-251.56100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>51767.430200</v>
+        <v>51767.430200000003</v>
       </c>
       <c r="AU10" s="1">
         <v>14.379842</v>
       </c>
       <c r="AV10" s="1">
-        <v>1423.640000</v>
+        <v>1423.64</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.331000</v>
+        <v>-311.33100000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>51778.540088</v>
+        <v>51778.540088000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.382928</v>
       </c>
       <c r="BA10" s="1">
-        <v>1443.090000</v>
+        <v>1443.09</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.228000</v>
+        <v>-363.22800000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>51789.490257</v>
+        <v>51789.490256999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.385970</v>
+        <v>14.38597</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.820000</v>
+        <v>1528.82</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.048000</v>
+        <v>-610.048</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>51800.566391</v>
@@ -2717,135 +3133,135 @@
         <v>14.389046</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.790000</v>
+        <v>1683.79</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1051.690000</v>
+        <v>-1051.69</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>51811.492761</v>
+        <v>51811.492761000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.392081</v>
+        <v>14.392080999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.950000</v>
+        <v>1978.95</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1815.200000</v>
+        <v>-1815.2</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>51822.034765</v>
+        <v>51822.034764999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.395010</v>
+        <v>14.395009999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2364.170000</v>
+        <v>2364.17</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2694.410000</v>
+        <v>-2694.41</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>51832.850988</v>
+        <v>51832.850987999998</v>
       </c>
       <c r="BY10" s="1">
         <v>14.398014</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2849.550000</v>
+        <v>2849.55</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3652.680000</v>
+        <v>-3652.68</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>51844.912702</v>
+        <v>51844.912702000001</v>
       </c>
       <c r="CD10" s="1">
         <v>14.401365</v>
       </c>
       <c r="CE10" s="1">
-        <v>4258.290000</v>
+        <v>4258.29</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5946.190000</v>
+        <v>-5946.19</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>51673.816240</v>
+        <v>51673.81624</v>
       </c>
       <c r="B11" s="1">
         <v>14.353838</v>
       </c>
       <c r="C11" s="1">
-        <v>1238.890000</v>
+        <v>1238.8900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-279.294000</v>
+        <v>-279.29399999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>51684.569541</v>
+        <v>51684.569540999997</v>
       </c>
       <c r="G11" s="1">
-        <v>14.356825</v>
+        <v>14.356825000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1261.040000</v>
+        <v>1261.04</v>
       </c>
       <c r="I11" s="1">
-        <v>-245.699000</v>
+        <v>-245.69900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>51695.066834</v>
+        <v>51695.066833999997</v>
       </c>
       <c r="L11" s="1">
         <v>14.359741</v>
       </c>
       <c r="M11" s="1">
-        <v>1296.320000</v>
+        <v>1296.32</v>
       </c>
       <c r="N11" s="1">
-        <v>-194.029000</v>
+        <v>-194.029</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>51705.274521</v>
+        <v>51705.274520999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.362576</v>
+        <v>14.362576000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1309.210000</v>
+        <v>1309.21</v>
       </c>
       <c r="S11" s="1">
-        <v>-179.124000</v>
+        <v>-179.124</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>51715.789846</v>
@@ -2854,739 +3270,739 @@
         <v>14.365497</v>
       </c>
       <c r="W11" s="1">
-        <v>1323.540000</v>
+        <v>1323.54</v>
       </c>
       <c r="X11" s="1">
-        <v>-167.855000</v>
+        <v>-167.85499999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>51725.672474</v>
+        <v>51725.672473999999</v>
       </c>
       <c r="AA11" s="1">
         <v>14.368242</v>
       </c>
       <c r="AB11" s="1">
-        <v>1342.410000</v>
+        <v>1342.41</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.416000</v>
+        <v>-167.416</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>51736.548749</v>
+        <v>51736.548749000001</v>
       </c>
       <c r="AF11" s="1">
         <v>14.371264</v>
       </c>
       <c r="AG11" s="1">
-        <v>1355.820000</v>
+        <v>1355.82</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.403000</v>
+        <v>-177.40299999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>51746.733636</v>
+        <v>51746.733635999997</v>
       </c>
       <c r="AK11" s="1">
         <v>14.374093</v>
       </c>
       <c r="AL11" s="1">
-        <v>1377.000000</v>
+        <v>1377</v>
       </c>
       <c r="AM11" s="1">
-        <v>-207.720000</v>
+        <v>-207.72</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>51757.148128</v>
+        <v>51757.148128000001</v>
       </c>
       <c r="AP11" s="1">
         <v>14.376986</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1398.920000</v>
+        <v>1398.92</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.518000</v>
+        <v>-251.518</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>51767.842866</v>
+        <v>51767.842865999999</v>
       </c>
       <c r="AU11" s="1">
         <v>14.379956</v>
       </c>
       <c r="AV11" s="1">
-        <v>1423.670000</v>
+        <v>1423.67</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.321000</v>
+        <v>-311.32100000000003</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>51778.902629</v>
+        <v>51778.902628999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.383029</v>
+        <v>14.383029000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1443.120000</v>
+        <v>1443.12</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.180000</v>
+        <v>-363.18</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>51789.852806</v>
+        <v>51789.852806000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>14.386070</v>
+        <v>14.38607</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.860000</v>
+        <v>1528.86</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.024000</v>
+        <v>-610.024</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>51801.015628</v>
+        <v>51801.015628000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.389171</v>
+        <v>14.389170999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.770000</v>
+        <v>1683.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1051.720000</v>
+        <v>-1051.72</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>51811.919352</v>
+        <v>51811.919351999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>14.392200</v>
+        <v>14.392200000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.970000</v>
+        <v>1978.97</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1815.240000</v>
+        <v>-1815.24</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>51822.449882</v>
+        <v>51822.449882000001</v>
       </c>
       <c r="BT11" s="1">
         <v>14.395125</v>
       </c>
       <c r="BU11" s="1">
-        <v>2363.870000</v>
+        <v>2363.87</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2695.180000</v>
+        <v>-2695.18</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>51833.272093</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.398131</v>
+        <v>14.398130999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2849.480000</v>
+        <v>2849.48</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3652.900000</v>
+        <v>-3652.9</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>51845.429038</v>
+        <v>51845.429038000002</v>
       </c>
       <c r="CD11" s="1">
         <v>14.401508</v>
       </c>
       <c r="CE11" s="1">
-        <v>4266.960000</v>
+        <v>4266.96</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5941.140000</v>
+        <v>-5941.14</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>51674.497774</v>
+        <v>51674.497774000003</v>
       </c>
       <c r="B12" s="1">
         <v>14.354027</v>
       </c>
       <c r="C12" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-279.170000</v>
+        <v>-279.17</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>51684.913263</v>
+        <v>51684.913263000002</v>
       </c>
       <c r="G12" s="1">
-        <v>14.356920</v>
+        <v>14.356920000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="I12" s="1">
-        <v>-245.959000</v>
+        <v>-245.959</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>51695.413570</v>
+        <v>51695.413569999997</v>
       </c>
       <c r="L12" s="1">
-        <v>14.359837</v>
+        <v>14.359837000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1296.110000</v>
+        <v>1296.1099999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-194.442000</v>
+        <v>-194.44200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>51705.624182</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.362673</v>
+        <v>14.362672999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1309.230000</v>
+        <v>1309.23</v>
       </c>
       <c r="S12" s="1">
-        <v>-179.104000</v>
+        <v>-179.10400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>51716.133452</v>
+        <v>51716.133452000002</v>
       </c>
       <c r="V12" s="1">
-        <v>14.365593</v>
+        <v>14.365593000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1323.600000</v>
+        <v>1323.6</v>
       </c>
       <c r="X12" s="1">
-        <v>-167.955000</v>
+        <v>-167.95500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>51726.338881</v>
+        <v>51726.338881000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.368427</v>
+        <v>14.368427000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1342.320000</v>
+        <v>1342.32</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.415000</v>
+        <v>-167.41499999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>51736.922272</v>
+        <v>51736.922272000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>14.371367</v>
+        <v>14.371366999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1355.820000</v>
+        <v>1355.82</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.589000</v>
+        <v>-177.589</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>51747.122463</v>
       </c>
       <c r="AK12" s="1">
-        <v>14.374201</v>
+        <v>14.374200999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1377.030000</v>
+        <v>1377.03</v>
       </c>
       <c r="AM12" s="1">
-        <v>-207.723000</v>
+        <v>-207.72300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>51757.507200</v>
+        <v>51757.5072</v>
       </c>
       <c r="AP12" s="1">
-        <v>14.377085</v>
+        <v>14.377084999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1398.900000</v>
+        <v>1398.9</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.515000</v>
+        <v>-251.51499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>51768.193538</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.380054</v>
+        <v>14.380053999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1423.670000</v>
+        <v>1423.67</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.337000</v>
+        <v>-311.33699999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>51779.257763</v>
+        <v>51779.257763000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.383127</v>
       </c>
       <c r="BA12" s="1">
-        <v>1443.090000</v>
+        <v>1443.09</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.194000</v>
+        <v>-363.19400000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>51790.267462</v>
+        <v>51790.267462000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>14.386185</v>
+        <v>14.386184999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.830000</v>
+        <v>1528.83</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.022000</v>
+        <v>-610.02200000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>51801.515531</v>
+        <v>51801.515530999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.389310</v>
+        <v>14.38931</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.810000</v>
+        <v>1683.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1051.560000</v>
+        <v>-1051.56</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>51812.317111</v>
+        <v>51812.317110999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.392310</v>
+        <v>14.39231</v>
       </c>
       <c r="BP12" s="1">
-        <v>1979.060000</v>
+        <v>1979.06</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1815.140000</v>
+        <v>-1815.14</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>51822.879913</v>
+        <v>51822.879912999997</v>
       </c>
       <c r="BT12" s="1">
         <v>14.395244</v>
       </c>
       <c r="BU12" s="1">
-        <v>2364.370000</v>
+        <v>2364.37</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2695.430000</v>
+        <v>-2695.43</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>51833.700635</v>
+        <v>51833.700635000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>14.398250</v>
+        <v>14.398250000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2849.960000</v>
+        <v>2849.96</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3652.650000</v>
+        <v>-3652.65</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>51845.981084</v>
+        <v>51845.981083999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>14.401661</v>
+        <v>14.401661000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4272.090000</v>
+        <v>4272.09</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5950.710000</v>
+        <v>-5950.71</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>51674.844447</v>
+        <v>51674.844447000003</v>
       </c>
       <c r="B13" s="1">
         <v>14.354123</v>
       </c>
       <c r="C13" s="1">
-        <v>1238.760000</v>
+        <v>1238.76</v>
       </c>
       <c r="D13" s="1">
-        <v>-279.614000</v>
+        <v>-279.61399999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>51685.261919</v>
+        <v>51685.261918999997</v>
       </c>
       <c r="G13" s="1">
-        <v>14.357017</v>
+        <v>14.357017000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="I13" s="1">
-        <v>-245.204000</v>
+        <v>-245.20400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>51695.759281</v>
+        <v>51695.759280999999</v>
       </c>
       <c r="L13" s="1">
         <v>14.359933</v>
       </c>
       <c r="M13" s="1">
-        <v>1296.260000</v>
+        <v>1296.26</v>
       </c>
       <c r="N13" s="1">
-        <v>-194.005000</v>
+        <v>-194.005</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>51706.277907</v>
+        <v>51706.277907000003</v>
       </c>
       <c r="Q13" s="1">
         <v>14.362855</v>
       </c>
       <c r="R13" s="1">
-        <v>1309.320000</v>
+        <v>1309.32</v>
       </c>
       <c r="S13" s="1">
-        <v>-179.058000</v>
+        <v>-179.05799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>51716.648759</v>
+        <v>51716.648759000003</v>
       </c>
       <c r="V13" s="1">
         <v>14.365736</v>
       </c>
       <c r="W13" s="1">
-        <v>1323.730000</v>
+        <v>1323.73</v>
       </c>
       <c r="X13" s="1">
-        <v>-167.913000</v>
+        <v>-167.91300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>51726.718536</v>
       </c>
       <c r="AA13" s="1">
-        <v>14.368533</v>
+        <v>14.368532999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1342.370000</v>
+        <v>1342.37</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.383000</v>
+        <v>-167.38300000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>51737.263018</v>
+        <v>51737.263017999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.371462</v>
+        <v>14.371461999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1355.820000</v>
+        <v>1355.82</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.703000</v>
+        <v>-177.703</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>51747.472141</v>
+        <v>51747.472140999998</v>
       </c>
       <c r="AK13" s="1">
         <v>14.374298</v>
       </c>
       <c r="AL13" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM13" s="1">
-        <v>-207.721000</v>
+        <v>-207.721</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>51757.867296</v>
+        <v>51757.867295999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>14.377185</v>
+        <v>14.377185000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1398.890000</v>
+        <v>1398.89</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.544000</v>
+        <v>-251.54400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>51768.611633</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.380170</v>
+        <v>14.38017</v>
       </c>
       <c r="AV13" s="1">
-        <v>1423.670000</v>
+        <v>1423.67</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.361000</v>
+        <v>-311.36099999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>51779.674402</v>
+        <v>51779.674401999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>14.383243</v>
       </c>
       <c r="BA13" s="1">
-        <v>1443.130000</v>
+        <v>1443.13</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.161000</v>
+        <v>-363.161</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>51790.570549</v>
+        <v>51790.570548999996</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.386270</v>
+        <v>14.38627</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.041000</v>
+        <v>-610.04100000000005</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>51801.722566</v>
+        <v>51801.722565999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.389367</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.790000</v>
+        <v>1683.79</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1051.660000</v>
+        <v>-1051.6600000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>51812.738712</v>
+        <v>51812.738711999998</v>
       </c>
       <c r="BO13" s="1">
         <v>14.392427</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.790000</v>
+        <v>1978.79</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1815.130000</v>
+        <v>-1815.13</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>51823.289114</v>
+        <v>51823.289113999999</v>
       </c>
       <c r="BT13" s="1">
         <v>14.395358</v>
       </c>
       <c r="BU13" s="1">
-        <v>2364.870000</v>
+        <v>2364.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2696.150000</v>
+        <v>-2696.15</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>51834.115817</v>
+        <v>51834.115816999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.398366</v>
+        <v>14.398365999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2849.760000</v>
+        <v>2849.76</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3652.850000</v>
+        <v>-3652.85</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>51846.509837</v>
+        <v>51846.509836999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.401808</v>
+        <v>14.401808000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4259.240000</v>
+        <v>4259.24</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5942.320000</v>
+        <v>-5942.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>51675.181260</v>
+        <v>51675.181259999998</v>
       </c>
       <c r="B14" s="1">
         <v>14.354217</v>
       </c>
       <c r="C14" s="1">
-        <v>1238.790000</v>
+        <v>1238.79</v>
       </c>
       <c r="D14" s="1">
-        <v>-279.483000</v>
+        <v>-279.483</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>51685.928542</v>
+        <v>51685.928542000001</v>
       </c>
       <c r="G14" s="1">
-        <v>14.357202</v>
+        <v>14.357201999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1260.890000</v>
+        <v>1260.8900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-245.360000</v>
+        <v>-245.36</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>51696.425377</v>
@@ -3595,1511 +4011,1511 @@
         <v>14.360118</v>
       </c>
       <c r="M14" s="1">
-        <v>1296.350000</v>
+        <v>1296.3499999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-194.298000</v>
+        <v>-194.298</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>51706.670275</v>
+        <v>51706.670274999997</v>
       </c>
       <c r="Q14" s="1">
         <v>14.362964</v>
       </c>
       <c r="R14" s="1">
-        <v>1309.330000</v>
+        <v>1309.33</v>
       </c>
       <c r="S14" s="1">
-        <v>-179.099000</v>
+        <v>-179.09899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>51716.826823</v>
+        <v>51716.826823000003</v>
       </c>
       <c r="V14" s="1">
-        <v>14.365785</v>
+        <v>14.365785000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1323.800000</v>
+        <v>1323.8</v>
       </c>
       <c r="X14" s="1">
-        <v>-167.776000</v>
+        <v>-167.77600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>51727.065771</v>
+        <v>51727.065771000001</v>
       </c>
       <c r="AA14" s="1">
         <v>14.368629</v>
       </c>
       <c r="AB14" s="1">
-        <v>1342.410000</v>
+        <v>1342.41</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.282000</v>
+        <v>-167.28200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>51737.608202</v>
+        <v>51737.608202000003</v>
       </c>
       <c r="AF14" s="1">
         <v>14.371558</v>
       </c>
       <c r="AG14" s="1">
-        <v>1355.830000</v>
+        <v>1355.83</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.592000</v>
+        <v>-177.59200000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>51747.820333</v>
+        <v>51747.820333000003</v>
       </c>
       <c r="AK14" s="1">
         <v>14.374395</v>
       </c>
       <c r="AL14" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM14" s="1">
-        <v>-207.734000</v>
+        <v>-207.73400000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>51758.283439</v>
+        <v>51758.283438999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>14.377301</v>
+        <v>14.377300999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1398.890000</v>
+        <v>1398.89</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.535000</v>
+        <v>-251.535</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>51768.924114</v>
+        <v>51768.924114000001</v>
       </c>
       <c r="AU14" s="1">
         <v>14.380257</v>
       </c>
       <c r="AV14" s="1">
-        <v>1423.650000</v>
+        <v>1423.65</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.360000</v>
+        <v>-311.36</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>51779.974980</v>
+        <v>51779.974979999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>14.383326</v>
       </c>
       <c r="BA14" s="1">
-        <v>1443.130000</v>
+        <v>1443.13</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.199000</v>
+        <v>-363.19900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>51790.935606</v>
+        <v>51790.935605999999</v>
       </c>
       <c r="BE14" s="1">
         <v>14.386371</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.870000</v>
+        <v>1528.87</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.028000</v>
+        <v>-610.02800000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>51802.099031</v>
+        <v>51802.099030999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>14.389472</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.850000</v>
+        <v>1683.85</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1051.590000</v>
+        <v>-1051.5899999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>51813.132574</v>
+        <v>51813.132574000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>14.392537</v>
+        <v>14.392537000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.980000</v>
+        <v>1978.98</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1815.160000</v>
+        <v>-1815.16</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>51823.721658</v>
+        <v>51823.721658000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.395478</v>
+        <v>14.395478000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2365.150000</v>
+        <v>2365.15</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2696.340000</v>
+        <v>-2696.34</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>51834.569168</v>
+        <v>51834.569168000002</v>
       </c>
       <c r="BY14" s="1">
         <v>14.398491</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2849.980000</v>
+        <v>2849.98</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3652.200000</v>
+        <v>-3652.2</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>51847.032137</v>
+        <v>51847.032137000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.401953</v>
+        <v>14.401953000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4264.310000</v>
+        <v>4264.3100000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5962.680000</v>
+        <v>-5962.68</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>51675.826733</v>
+        <v>51675.826733000002</v>
       </c>
       <c r="B15" s="1">
-        <v>14.354396</v>
+        <v>14.354395999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1238.540000</v>
+        <v>1238.54</v>
       </c>
       <c r="D15" s="1">
-        <v>-279.748000</v>
+        <v>-279.74799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>51686.295582</v>
+        <v>51686.295581999999</v>
       </c>
       <c r="G15" s="1">
-        <v>14.357304</v>
+        <v>14.357303999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="I15" s="1">
-        <v>-244.600000</v>
+        <v>-244.6</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>51696.796416</v>
+        <v>51696.796415999997</v>
       </c>
       <c r="L15" s="1">
-        <v>14.360221</v>
+        <v>14.360220999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1296.540000</v>
+        <v>1296.54</v>
       </c>
       <c r="N15" s="1">
-        <v>-194.171000</v>
+        <v>-194.17099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>51707.015495</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.363060</v>
+        <v>14.363060000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1309.220000</v>
+        <v>1309.22</v>
       </c>
       <c r="S15" s="1">
-        <v>-179.160000</v>
+        <v>-179.16</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>51717.171045</v>
+        <v>51717.171045000003</v>
       </c>
       <c r="V15" s="1">
         <v>14.365881</v>
       </c>
       <c r="W15" s="1">
-        <v>1323.700000</v>
+        <v>1323.7</v>
       </c>
       <c r="X15" s="1">
-        <v>-167.892000</v>
+        <v>-167.892</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>51727.417927</v>
+        <v>51727.417927000002</v>
       </c>
       <c r="AA15" s="1">
         <v>14.368727</v>
       </c>
       <c r="AB15" s="1">
-        <v>1342.520000</v>
+        <v>1342.52</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.303000</v>
+        <v>-167.303</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>51738.029347</v>
+        <v>51738.029347000003</v>
       </c>
       <c r="AF15" s="1">
         <v>14.371675</v>
       </c>
       <c r="AG15" s="1">
-        <v>1355.680000</v>
+        <v>1355.68</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.594000</v>
+        <v>-177.59399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>51748.236972</v>
+        <v>51748.236971999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.374510</v>
+        <v>14.374510000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM15" s="1">
-        <v>-207.726000</v>
+        <v>-207.726</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>51758.591983</v>
+        <v>51758.591982999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>14.377387</v>
+        <v>14.377387000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1398.900000</v>
+        <v>1398.9</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.547000</v>
+        <v>-251.547</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>51769.288672</v>
+        <v>51769.288672000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.380358</v>
+        <v>14.380357999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1423.640000</v>
+        <v>1423.64</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.322000</v>
+        <v>-311.322</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>51780.336067</v>
+        <v>51780.336066999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>14.383427</v>
+        <v>14.383426999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1443.090000</v>
+        <v>1443.09</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.231000</v>
+        <v>-363.23099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>51791.296163</v>
+        <v>51791.296162999999</v>
       </c>
       <c r="BE15" s="1">
         <v>14.386471</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.840000</v>
+        <v>1528.84</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.046000</v>
+        <v>-610.04600000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>51802.847492</v>
+        <v>51802.847492000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.389680</v>
+        <v>14.38968</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.810000</v>
+        <v>1683.81</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1051.530000</v>
+        <v>-1051.53</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>51813.554662</v>
+        <v>51813.554662000002</v>
       </c>
       <c r="BO15" s="1">
         <v>14.392654</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.810000</v>
+        <v>1978.81</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1815.060000</v>
+        <v>-1815.06</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>51824.148680</v>
+        <v>51824.148679999998</v>
       </c>
       <c r="BT15" s="1">
         <v>14.395597</v>
       </c>
       <c r="BU15" s="1">
-        <v>2365.410000</v>
+        <v>2365.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2696.960000</v>
+        <v>-2696.96</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>51835.018011</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.398616</v>
+        <v>14.398616000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2849.640000</v>
+        <v>2849.64</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3651.680000</v>
+        <v>-3651.68</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>51847.569274</v>
+        <v>51847.569274000001</v>
       </c>
       <c r="CD15" s="1">
         <v>14.402103</v>
       </c>
       <c r="CE15" s="1">
-        <v>4268.270000</v>
+        <v>4268.2700000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5945.060000</v>
+        <v>-5945.06</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>51676.210925</v>
+        <v>51676.210924999999</v>
       </c>
       <c r="B16" s="1">
-        <v>14.354503</v>
+        <v>14.354502999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1238.810000</v>
+        <v>1238.81</v>
       </c>
       <c r="D16" s="1">
-        <v>-279.652000</v>
+        <v>-279.65199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>51686.639342</v>
+        <v>51686.639342000002</v>
       </c>
       <c r="G16" s="1">
-        <v>14.357400</v>
+        <v>14.3574</v>
       </c>
       <c r="H16" s="1">
-        <v>1261.270000</v>
+        <v>1261.27</v>
       </c>
       <c r="I16" s="1">
-        <v>-245.400000</v>
+        <v>-245.4</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>51697.144115</v>
+        <v>51697.144115000003</v>
       </c>
       <c r="L16" s="1">
-        <v>14.360318</v>
+        <v>14.360317999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1296.490000</v>
+        <v>1296.49</v>
       </c>
       <c r="N16" s="1">
-        <v>-194.197000</v>
+        <v>-194.197</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>51707.367150</v>
+        <v>51707.367149999998</v>
       </c>
       <c r="Q16" s="1">
         <v>14.363158</v>
       </c>
       <c r="R16" s="1">
-        <v>1309.280000</v>
+        <v>1309.28</v>
       </c>
       <c r="S16" s="1">
-        <v>-179.156000</v>
+        <v>-179.15600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>51717.591654</v>
+        <v>51717.591654000003</v>
       </c>
       <c r="V16" s="1">
-        <v>14.365998</v>
+        <v>14.365997999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1323.690000</v>
+        <v>1323.69</v>
       </c>
       <c r="X16" s="1">
-        <v>-167.955000</v>
+        <v>-167.95500000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>51727.842471</v>
+        <v>51727.842471000004</v>
       </c>
       <c r="AA16" s="1">
         <v>14.368845</v>
       </c>
       <c r="AB16" s="1">
-        <v>1342.570000</v>
+        <v>1342.57</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.181000</v>
+        <v>-167.18100000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>51738.321134</v>
+        <v>51738.321133999998</v>
       </c>
       <c r="AF16" s="1">
         <v>14.371756</v>
       </c>
       <c r="AG16" s="1">
-        <v>1355.830000</v>
+        <v>1355.83</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.553000</v>
+        <v>-177.553</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>51748.527660</v>
+        <v>51748.52766</v>
       </c>
       <c r="AK16" s="1">
-        <v>14.374591</v>
+        <v>14.374591000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1376.960000</v>
+        <v>1376.96</v>
       </c>
       <c r="AM16" s="1">
-        <v>-207.717000</v>
+        <v>-207.71700000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>51758.952600</v>
+        <v>51758.952599999997</v>
       </c>
       <c r="AP16" s="1">
         <v>14.377487</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1398.890000</v>
+        <v>1398.89</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.534000</v>
+        <v>-251.53399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>51769.653728</v>
+        <v>51769.653727999997</v>
       </c>
       <c r="AU16" s="1">
         <v>14.380459</v>
       </c>
       <c r="AV16" s="1">
-        <v>1423.660000</v>
+        <v>1423.66</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.310000</v>
+        <v>-311.31</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>51780.696161</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.383527</v>
+        <v>14.383527000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1443.100000</v>
+        <v>1443.1</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.167000</v>
+        <v>-363.16699999999997</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>51792.019331</v>
+        <v>51792.019331000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>14.386672</v>
+        <v>14.386672000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.870000</v>
+        <v>1528.87</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.001000</v>
+        <v>-610.00099999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>51803.222011</v>
+        <v>51803.222010999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>14.389784</v>
+        <v>14.389784000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1051.540000</v>
+        <v>-1051.54</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>51813.949958</v>
+        <v>51813.949957999997</v>
       </c>
       <c r="BO16" s="1">
         <v>14.392764</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.850000</v>
+        <v>1978.85</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1815.020000</v>
+        <v>-1815.02</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>51824.563472</v>
+        <v>51824.563472000002</v>
       </c>
       <c r="BT16" s="1">
         <v>14.395712</v>
       </c>
       <c r="BU16" s="1">
-        <v>2366.040000</v>
+        <v>2366.04</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2696.790000</v>
+        <v>-2696.79</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>51835.488217</v>
+        <v>51835.488216999998</v>
       </c>
       <c r="BY16" s="1">
         <v>14.398747</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.070000</v>
+        <v>2849.07</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3652.420000</v>
+        <v>-3652.42</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>51848.413464</v>
+        <v>51848.413463999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.402337</v>
+        <v>14.402336999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4268.300000</v>
+        <v>4268.3</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5960.160000</v>
+        <v>-5960.16</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>51676.551675</v>
+        <v>51676.551675000002</v>
       </c>
       <c r="B17" s="1">
-        <v>14.354598</v>
+        <v>14.354597999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1238.520000</v>
+        <v>1238.52</v>
       </c>
       <c r="D17" s="1">
-        <v>-279.537000</v>
+        <v>-279.53699999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>51686.983533</v>
+        <v>51686.983532999999</v>
       </c>
       <c r="G17" s="1">
         <v>14.357495</v>
       </c>
       <c r="H17" s="1">
-        <v>1260.960000</v>
+        <v>1260.96</v>
       </c>
       <c r="I17" s="1">
-        <v>-245.449000</v>
+        <v>-245.44900000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>51697.490289</v>
+        <v>51697.490289000001</v>
       </c>
       <c r="L17" s="1">
         <v>14.360414</v>
       </c>
       <c r="M17" s="1">
-        <v>1296.340000</v>
+        <v>1296.3399999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-194.139000</v>
+        <v>-194.13900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>51707.804621</v>
+        <v>51707.804621000003</v>
       </c>
       <c r="Q17" s="1">
         <v>14.363279</v>
       </c>
       <c r="R17" s="1">
-        <v>1309.210000</v>
+        <v>1309.21</v>
       </c>
       <c r="S17" s="1">
-        <v>-179.060000</v>
+        <v>-179.06</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>51717.890245</v>
+        <v>51717.890245000002</v>
       </c>
       <c r="V17" s="1">
-        <v>14.366081</v>
+        <v>14.366080999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1323.660000</v>
+        <v>1323.66</v>
       </c>
       <c r="X17" s="1">
-        <v>-167.973000</v>
+        <v>-167.97300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>51728.124199</v>
+        <v>51728.124198999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.368923</v>
+        <v>14.368923000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1342.370000</v>
+        <v>1342.37</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.337000</v>
+        <v>-167.33699999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>51738.662730</v>
+        <v>51738.662729999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.371851</v>
+        <v>14.371850999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1355.920000</v>
+        <v>1355.92</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.438000</v>
+        <v>-177.43799999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>51748.866908</v>
+        <v>51748.866908000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.374685</v>
+        <v>14.374684999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM17" s="1">
-        <v>-207.732000</v>
+        <v>-207.732</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>51759.310190</v>
+        <v>51759.310189999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.377586</v>
+        <v>14.377586000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1398.910000</v>
+        <v>1398.91</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.548000</v>
+        <v>-251.548</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>51770.383343</v>
+        <v>51770.383343000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>14.380662</v>
+        <v>14.380661999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1423.660000</v>
+        <v>1423.66</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.312000</v>
+        <v>-311.31200000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>51781.411424</v>
+        <v>51781.411423999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>14.383725</v>
       </c>
       <c r="BA17" s="1">
-        <v>1443.110000</v>
+        <v>1443.11</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.201000</v>
+        <v>-363.20100000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>51792.378930</v>
+        <v>51792.378929999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.386772</v>
+        <v>14.386772000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.810000</v>
+        <v>1528.81</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.019000</v>
+        <v>-610.01900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>51803.598724</v>
+        <v>51803.598724000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.389889</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.740000</v>
+        <v>1683.74</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1051.610000</v>
+        <v>-1051.6099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>51814.368567</v>
+        <v>51814.368566999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.392880</v>
+        <v>14.39288</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.870000</v>
+        <v>1978.87</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1815.080000</v>
+        <v>-1815.08</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>51825.302407</v>
+        <v>51825.302407000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>14.395917</v>
+        <v>14.395917000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.620000</v>
+        <v>2366.62</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2696.940000</v>
+        <v>-2696.94</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>51835.985704</v>
+        <v>51835.985703999999</v>
       </c>
       <c r="BY17" s="1">
         <v>14.398885</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2849.480000</v>
+        <v>2849.48</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3651.860000</v>
+        <v>-3651.86</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>51848.649064</v>
+        <v>51848.649063999997</v>
       </c>
       <c r="CD17" s="1">
         <v>14.402403</v>
       </c>
       <c r="CE17" s="1">
-        <v>4267.860000</v>
+        <v>4267.8599999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5961.790000</v>
+        <v>-5961.79</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>51676.894907</v>
+        <v>51676.894907000002</v>
       </c>
       <c r="B18" s="1">
-        <v>14.354693</v>
+        <v>14.354692999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1238.880000</v>
+        <v>1238.8800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-279.746000</v>
+        <v>-279.74599999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>51687.402158</v>
+        <v>51687.402157999997</v>
       </c>
       <c r="G18" s="1">
         <v>14.357612</v>
       </c>
       <c r="H18" s="1">
-        <v>1260.660000</v>
+        <v>1260.6600000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-245.449000</v>
+        <v>-245.44900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>51697.926767</v>
+        <v>51697.926766999997</v>
       </c>
       <c r="L18" s="1">
         <v>14.360535</v>
       </c>
       <c r="M18" s="1">
-        <v>1296.570000</v>
+        <v>1296.57</v>
       </c>
       <c r="N18" s="1">
-        <v>-194.362000</v>
+        <v>-194.36199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>51708.071937</v>
+        <v>51708.071937000001</v>
       </c>
       <c r="Q18" s="1">
         <v>14.363353</v>
       </c>
       <c r="R18" s="1">
-        <v>1309.180000</v>
+        <v>1309.18</v>
       </c>
       <c r="S18" s="1">
-        <v>-179.075000</v>
+        <v>-179.07499999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>51718.233476</v>
+        <v>51718.233476000001</v>
       </c>
       <c r="V18" s="1">
-        <v>14.366176</v>
+        <v>14.366175999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1323.720000</v>
+        <v>1323.72</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.129000</v>
+        <v>-168.12899999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>51728.473880</v>
+        <v>51728.473879999998</v>
       </c>
       <c r="AA18" s="1">
         <v>14.369021</v>
       </c>
       <c r="AB18" s="1">
-        <v>1342.420000</v>
+        <v>1342.42</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.185000</v>
+        <v>-167.185</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>51739.006425</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.371946</v>
+        <v>14.371945999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1355.830000</v>
+        <v>1355.83</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.522000</v>
+        <v>-177.52199999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>51749.225996</v>
+        <v>51749.225996000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.374785</v>
+        <v>14.374784999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM18" s="1">
-        <v>-207.709000</v>
+        <v>-207.709</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>51760.037789</v>
+        <v>51760.037789000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.377788</v>
+        <v>14.377788000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1398.920000</v>
+        <v>1398.92</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.533000</v>
+        <v>-251.53299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>51770.773200</v>
+        <v>51770.773200000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.380770</v>
+        <v>14.38077</v>
       </c>
       <c r="AV18" s="1">
-        <v>1423.670000</v>
+        <v>1423.67</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.298000</v>
+        <v>-311.298</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>51781.772480</v>
+        <v>51781.77248</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.383826</v>
+        <v>14.383825999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1443.140000</v>
+        <v>1443.14</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.205000</v>
+        <v>-363.20499999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>51792.741010</v>
+        <v>51792.741009999998</v>
       </c>
       <c r="BE18" s="1">
         <v>14.386873</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.983000</v>
+        <v>-609.98299999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>51804.278983</v>
+        <v>51804.278982999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.390077</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1051.550000</v>
+        <v>-1051.55</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>51815.082804</v>
+        <v>51815.082803999998</v>
       </c>
       <c r="BO18" s="1">
         <v>14.393079</v>
       </c>
       <c r="BP18" s="1">
-        <v>1979.010000</v>
+        <v>1979.01</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1815.020000</v>
+        <v>-1815.02</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>51825.419464</v>
+        <v>51825.419463999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.395950</v>
+        <v>14.395949999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2367.190000</v>
+        <v>2367.19</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2696.720000</v>
+        <v>-2696.72</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>51836.375592</v>
+        <v>51836.375591999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.398993</v>
+        <v>14.398993000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2849.440000</v>
+        <v>2849.44</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3652.310000</v>
+        <v>-3652.31</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>51849.168375</v>
+        <v>51849.168375000001</v>
       </c>
       <c r="CD18" s="1">
         <v>14.402547</v>
       </c>
       <c r="CE18" s="1">
-        <v>4269.520000</v>
+        <v>4269.5200000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5943.790000</v>
+        <v>-5943.79</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>51677.321003</v>
+        <v>51677.321002999997</v>
       </c>
       <c r="B19" s="1">
         <v>14.354811</v>
       </c>
       <c r="C19" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-279.611000</v>
+        <v>-279.61099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>51687.680412</v>
+        <v>51687.680412000002</v>
       </c>
       <c r="G19" s="1">
-        <v>14.357689</v>
+        <v>14.357689000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="I19" s="1">
-        <v>-246.915000</v>
+        <v>-246.91499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>51698.195102</v>
+        <v>51698.195101999998</v>
       </c>
       <c r="L19" s="1">
-        <v>14.360610</v>
+        <v>14.360609999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1296.420000</v>
+        <v>1296.42</v>
       </c>
       <c r="N19" s="1">
-        <v>-194.317000</v>
+        <v>-194.31700000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>51708.425586</v>
+        <v>51708.425585999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.363452</v>
+        <v>14.363452000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1309.340000</v>
+        <v>1309.3399999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-179.083000</v>
+        <v>-179.083</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>51718.577205</v>
+        <v>51718.577205000001</v>
       </c>
       <c r="V19" s="1">
-        <v>14.366271</v>
+        <v>14.366270999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1323.630000</v>
+        <v>1323.63</v>
       </c>
       <c r="X19" s="1">
-        <v>-167.780000</v>
+        <v>-167.78</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>51728.820614</v>
+        <v>51728.820613999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.369117</v>
+        <v>14.369116999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1342.320000</v>
+        <v>1342.32</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.313000</v>
+        <v>-167.31299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>51739.692889</v>
+        <v>51739.692888999998</v>
       </c>
       <c r="AF19" s="1">
         <v>14.372137</v>
       </c>
       <c r="AG19" s="1">
-        <v>1355.690000</v>
+        <v>1355.69</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.592000</v>
+        <v>-177.59200000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>51749.921883</v>
+        <v>51749.921883000003</v>
       </c>
       <c r="AK19" s="1">
         <v>14.374978</v>
       </c>
       <c r="AL19" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM19" s="1">
-        <v>-207.719000</v>
+        <v>-207.71899999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>51760.413756</v>
+        <v>51760.413756000002</v>
       </c>
       <c r="AP19" s="1">
         <v>14.377893</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1398.920000</v>
+        <v>1398.92</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.534000</v>
+        <v>-251.53399999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>51771.140735</v>
+        <v>51771.140735000001</v>
       </c>
       <c r="AU19" s="1">
         <v>14.380872</v>
       </c>
       <c r="AV19" s="1">
-        <v>1423.640000</v>
+        <v>1423.64</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.327000</v>
+        <v>-311.327</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>51782.129600</v>
+        <v>51782.1296</v>
       </c>
       <c r="AZ19" s="1">
         <v>14.383925</v>
       </c>
       <c r="BA19" s="1">
-        <v>1443.110000</v>
+        <v>1443.11</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.208000</v>
+        <v>-363.20800000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>51793.413584</v>
+        <v>51793.413584000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>14.387059</v>
+        <v>14.387059000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.830000</v>
+        <v>1528.83</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.968000</v>
+        <v>-609.96799999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>51804.724386</v>
+        <v>51804.724386000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.390201</v>
+        <v>14.390200999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.710000</v>
+        <v>1683.71</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1051.570000</v>
+        <v>-1051.57</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>51815.195396</v>
+        <v>51815.195396000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>14.393110</v>
+        <v>14.39311</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.830000</v>
+        <v>1978.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1814.820000</v>
+        <v>-1814.82</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>51825.856938</v>
+        <v>51825.856937999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.396071</v>
+        <v>14.396070999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.030000</v>
+        <v>2368.0300000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2696.530000</v>
+        <v>-2696.53</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>51836.797655</v>
+        <v>51836.797655000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>14.399110</v>
+        <v>14.39911</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2849.670000</v>
+        <v>2849.67</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3651.850000</v>
+        <v>-3651.85</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>51849.686727</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.402691</v>
+        <v>14.402691000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4251.290000</v>
+        <v>4251.29</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5948.110000</v>
+        <v>-5948.11</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>51677.593427</v>
       </c>
@@ -5107,88 +5523,88 @@
         <v>14.354887</v>
       </c>
       <c r="C20" s="1">
-        <v>1238.700000</v>
+        <v>1238.7</v>
       </c>
       <c r="D20" s="1">
-        <v>-279.748000</v>
+        <v>-279.74799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>51688.026621</v>
+        <v>51688.026620999997</v>
       </c>
       <c r="G20" s="1">
         <v>14.357785</v>
       </c>
       <c r="H20" s="1">
-        <v>1261.100000</v>
+        <v>1261.0999999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-244.693000</v>
+        <v>-244.69300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>51698.538867</v>
+        <v>51698.538867000003</v>
       </c>
       <c r="L20" s="1">
-        <v>14.360705</v>
+        <v>14.360704999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1296.500000</v>
+        <v>1296.5</v>
       </c>
       <c r="N20" s="1">
-        <v>-194.274000</v>
+        <v>-194.274</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>51708.773291</v>
+        <v>51708.773290999998</v>
       </c>
       <c r="Q20" s="1">
         <v>14.363548</v>
       </c>
       <c r="R20" s="1">
-        <v>1309.280000</v>
+        <v>1309.28</v>
       </c>
       <c r="S20" s="1">
-        <v>-179.135000</v>
+        <v>-179.13499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>51719.264162</v>
+        <v>51719.264161999999</v>
       </c>
       <c r="V20" s="1">
         <v>14.366462</v>
       </c>
       <c r="W20" s="1">
-        <v>1323.720000</v>
+        <v>1323.72</v>
       </c>
       <c r="X20" s="1">
-        <v>-167.931000</v>
+        <v>-167.93100000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>51729.517957</v>
+        <v>51729.517956999996</v>
       </c>
       <c r="AA20" s="1">
         <v>14.369311</v>
       </c>
       <c r="AB20" s="1">
-        <v>1342.310000</v>
+        <v>1342.31</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.366000</v>
+        <v>-167.36600000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>51740.038599</v>
@@ -5197,542 +5613,542 @@
         <v>14.372233</v>
       </c>
       <c r="AG20" s="1">
-        <v>1355.910000</v>
+        <v>1355.91</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.560000</v>
+        <v>-177.56</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>51750.274041</v>
+        <v>51750.274040999997</v>
       </c>
       <c r="AK20" s="1">
         <v>14.375076</v>
       </c>
       <c r="AL20" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM20" s="1">
-        <v>-207.717000</v>
+        <v>-207.71700000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>51760.774349</v>
+        <v>51760.774348999999</v>
       </c>
       <c r="AP20" s="1">
         <v>14.377993</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1398.920000</v>
+        <v>1398.92</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.559000</v>
+        <v>-251.559</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>51771.820785</v>
+        <v>51771.820785000004</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.381061</v>
+        <v>14.381061000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1423.630000</v>
+        <v>1423.63</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.317000</v>
+        <v>-311.31700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>51782.793744</v>
+        <v>51782.793744000002</v>
       </c>
       <c r="AZ20" s="1">
         <v>14.384109</v>
       </c>
       <c r="BA20" s="1">
-        <v>1443.090000</v>
+        <v>1443.09</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.191000</v>
+        <v>-363.19099999999997</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>51793.853537</v>
+        <v>51793.853537000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>14.387182</v>
+        <v>14.387181999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.810000</v>
+        <v>1528.81</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.013000</v>
+        <v>-610.01300000000003</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>51805.100352</v>
+        <v>51805.100352000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.390306</v>
+        <v>14.390306000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.780000</v>
+        <v>1683.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1051.580000</v>
+        <v>-1051.58</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>51815.611575</v>
+        <v>51815.611575000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.393225</v>
+        <v>14.393224999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.870000</v>
+        <v>1978.87</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1814.950000</v>
+        <v>-1814.95</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>51826.268581</v>
+        <v>51826.268580999997</v>
       </c>
       <c r="BT20" s="1">
         <v>14.396186</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.240000</v>
+        <v>2368.2399999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2696.220000</v>
+        <v>-2696.22</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>51837.220247</v>
+        <v>51837.220246999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>14.399228</v>
+        <v>14.399228000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2849.600000</v>
+        <v>2849.6</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3651.620000</v>
+        <v>-3651.62</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>51850.203557</v>
+        <v>51850.203557000001</v>
       </c>
       <c r="CD20" s="1">
         <v>14.402834</v>
       </c>
       <c r="CE20" s="1">
-        <v>4260.050000</v>
+        <v>4260.05</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5964.070000</v>
+        <v>-5964.07</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>51677.934523</v>
+        <v>51677.934523000004</v>
       </c>
       <c r="B21" s="1">
         <v>14.354982</v>
       </c>
       <c r="C21" s="1">
-        <v>1238.510000</v>
+        <v>1238.51</v>
       </c>
       <c r="D21" s="1">
-        <v>-279.905000</v>
+        <v>-279.90499999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>51688.372828</v>
       </c>
       <c r="G21" s="1">
-        <v>14.357881</v>
+        <v>14.357881000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-245.450000</v>
+        <v>-245.45</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>51698.927234</v>
+        <v>51698.927234000002</v>
       </c>
       <c r="L21" s="1">
         <v>14.360813</v>
       </c>
       <c r="M21" s="1">
-        <v>1296.500000</v>
+        <v>1296.5</v>
       </c>
       <c r="N21" s="1">
-        <v>-194.316000</v>
+        <v>-194.316</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>51709.470655</v>
+        <v>51709.470654999997</v>
       </c>
       <c r="Q21" s="1">
         <v>14.363742</v>
       </c>
       <c r="R21" s="1">
-        <v>1309.240000</v>
+        <v>1309.24</v>
       </c>
       <c r="S21" s="1">
-        <v>-179.113000</v>
+        <v>-179.113</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>51719.607890</v>
+        <v>51719.607889999999</v>
       </c>
       <c r="V21" s="1">
-        <v>14.366558</v>
+        <v>14.366557999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1323.620000</v>
+        <v>1323.62</v>
       </c>
       <c r="X21" s="1">
-        <v>-167.914000</v>
+        <v>-167.91399999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>51729.864197</v>
+        <v>51729.864197000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.369407</v>
+        <v>14.369407000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1342.160000</v>
+        <v>1342.16</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.217000</v>
+        <v>-167.21700000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>51740.379847</v>
+        <v>51740.379846999997</v>
       </c>
       <c r="AF21" s="1">
         <v>14.372328</v>
       </c>
       <c r="AG21" s="1">
-        <v>1355.980000</v>
+        <v>1355.98</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.454000</v>
+        <v>-177.45400000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>51750.617770</v>
+        <v>51750.617769999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.375172</v>
+        <v>14.375171999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1377.000000</v>
+        <v>1377</v>
       </c>
       <c r="AM21" s="1">
-        <v>-207.711000</v>
+        <v>-207.71100000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>51761.441998</v>
+        <v>51761.441998000002</v>
       </c>
       <c r="AP21" s="1">
         <v>14.378178</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1398.900000</v>
+        <v>1398.9</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.531000</v>
+        <v>-251.53100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>51772.236894</v>
+        <v>51772.236894000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.381177</v>
+        <v>14.381176999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1423.660000</v>
+        <v>1423.66</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.345000</v>
+        <v>-311.34500000000003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>51783.243616</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.384234</v>
+        <v>14.384233999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1443.090000</v>
+        <v>1443.09</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.147000</v>
+        <v>-363.14699999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>51794.210192</v>
+        <v>51794.210191999999</v>
       </c>
       <c r="BE21" s="1">
         <v>14.387281</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.830000</v>
+        <v>1528.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.978000</v>
+        <v>-609.97799999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>51805.474801</v>
+        <v>51805.474800999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>14.390410</v>
+        <v>14.390409999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.760000</v>
+        <v>1683.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1051.560000</v>
+        <v>-1051.56</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>51816.008835</v>
+        <v>51816.008835000001</v>
       </c>
       <c r="BO21" s="1">
         <v>14.393336</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.830000</v>
+        <v>1978.83</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1814.900000</v>
+        <v>-1814.9</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>51826.700598</v>
+        <v>51826.700598000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.396306</v>
+        <v>14.396305999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.710000</v>
+        <v>2368.71</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2695.470000</v>
+        <v>-2695.47</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>51837.664167</v>
+        <v>51837.664167000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.399351</v>
+        <v>14.399350999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.380000</v>
+        <v>2849.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3652.060000</v>
+        <v>-3652.06</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>51850.722372</v>
+        <v>51850.722371999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.402978</v>
+        <v>14.402977999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4254.650000</v>
+        <v>4254.6499999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5957.940000</v>
+        <v>-5957.94</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>51678.274776</v>
+        <v>51678.274775999998</v>
       </c>
       <c r="B22" s="1">
         <v>14.355076</v>
       </c>
       <c r="C22" s="1">
-        <v>1238.380000</v>
+        <v>1238.3800000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-279.633000</v>
+        <v>-279.63299999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>51689.066730</v>
+        <v>51689.066729999999</v>
       </c>
       <c r="G22" s="1">
         <v>14.358074</v>
       </c>
       <c r="H22" s="1">
-        <v>1260.710000</v>
+        <v>1260.71</v>
       </c>
       <c r="I22" s="1">
-        <v>-246.125000</v>
+        <v>-246.125</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>51699.581439</v>
+        <v>51699.581439000001</v>
       </c>
       <c r="L22" s="1">
-        <v>14.360995</v>
+        <v>14.360995000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1296.250000</v>
+        <v>1296.25</v>
       </c>
       <c r="N22" s="1">
-        <v>-194.388000</v>
+        <v>-194.38800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>51709.820831</v>
+        <v>51709.820830999997</v>
       </c>
       <c r="Q22" s="1">
         <v>14.363839</v>
       </c>
       <c r="R22" s="1">
-        <v>1309.210000</v>
+        <v>1309.21</v>
       </c>
       <c r="S22" s="1">
-        <v>-179.101000</v>
+        <v>-179.101</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>51719.951619</v>
+        <v>51719.951618999999</v>
       </c>
       <c r="V22" s="1">
-        <v>14.366653</v>
+        <v>14.366652999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1323.810000</v>
+        <v>1323.81</v>
       </c>
       <c r="X22" s="1">
-        <v>-167.733000</v>
+        <v>-167.733</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>51730.215332</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.369504</v>
+        <v>14.369503999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1342.290000</v>
+        <v>1342.29</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.383000</v>
+        <v>-167.38300000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>51741.037058</v>
+        <v>51741.037058000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>14.372510</v>
+        <v>14.37251</v>
       </c>
       <c r="AG22" s="1">
-        <v>1355.750000</v>
+        <v>1355.75</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.552000</v>
+        <v>-177.55199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>51751.316137</v>
+        <v>51751.316137000002</v>
       </c>
       <c r="AK22" s="1">
         <v>14.375366</v>
       </c>
       <c r="AL22" s="1">
-        <v>1377.000000</v>
+        <v>1377</v>
       </c>
       <c r="AM22" s="1">
-        <v>-207.709000</v>
+        <v>-207.709</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>51761.858108</v>
@@ -5741,43 +6157,43 @@
         <v>14.378294</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1398.880000</v>
+        <v>1398.88</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.518000</v>
+        <v>-251.518</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>51772.631738</v>
+        <v>51772.631737999996</v>
       </c>
       <c r="AU22" s="1">
         <v>14.381287</v>
       </c>
       <c r="AV22" s="1">
-        <v>1423.650000</v>
+        <v>1423.65</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.291000</v>
+        <v>-311.291</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>51783.601229</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.384334</v>
+        <v>14.384334000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1443.060000</v>
+        <v>1443.06</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.196000</v>
+        <v>-363.19600000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>51794.571247</v>
@@ -5786,91 +6202,91 @@
         <v>14.387381</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.860000</v>
+        <v>1528.86</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.029000</v>
+        <v>-610.029</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>51805.896896</v>
+        <v>51805.896895999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.390527</v>
+        <v>14.390527000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1051.520000</v>
+        <v>-1051.52</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>51816.433906</v>
+        <v>51816.433905999998</v>
       </c>
       <c r="BO22" s="1">
         <v>14.393454</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.850000</v>
+        <v>1978.85</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1814.910000</v>
+        <v>-1814.91</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>51827.128148</v>
+        <v>51827.128148000003</v>
       </c>
       <c r="BT22" s="1">
         <v>14.396424</v>
       </c>
       <c r="BU22" s="1">
-        <v>2369.030000</v>
+        <v>2369.0300000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2694.850000</v>
+        <v>-2694.85</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>51838.100151</v>
+        <v>51838.100150999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>14.399472</v>
+        <v>14.399471999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2849.870000</v>
+        <v>2849.87</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3651.370000</v>
+        <v>-3651.37</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>51851.271908</v>
+        <v>51851.271908000002</v>
       </c>
       <c r="CD22" s="1">
         <v>14.403131</v>
       </c>
       <c r="CE22" s="1">
-        <v>4250.950000</v>
+        <v>4250.95</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5951.860000</v>
+        <v>-5951.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>51678.961272</v>
       </c>
@@ -5878,103 +6294,103 @@
         <v>14.355267</v>
       </c>
       <c r="C23" s="1">
-        <v>1238.780000</v>
+        <v>1238.78</v>
       </c>
       <c r="D23" s="1">
-        <v>-279.451000</v>
+        <v>-279.45100000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>51689.412442</v>
+        <v>51689.412442000001</v>
       </c>
       <c r="G23" s="1">
-        <v>14.358170</v>
+        <v>14.358169999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1260.600000</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-245.225000</v>
+        <v>-245.22499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>51699.926141</v>
+        <v>51699.926141000004</v>
       </c>
       <c r="L23" s="1">
         <v>14.361091</v>
       </c>
       <c r="M23" s="1">
-        <v>1296.160000</v>
+        <v>1296.1600000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-194.123000</v>
+        <v>-194.12299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>51710.168063</v>
+        <v>51710.168062999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>14.363936</v>
+        <v>14.363936000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1309.220000</v>
+        <v>1309.22</v>
       </c>
       <c r="S23" s="1">
-        <v>-179.006000</v>
+        <v>-179.006</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>51720.613777</v>
+        <v>51720.613776999999</v>
       </c>
       <c r="V23" s="1">
         <v>14.366837</v>
       </c>
       <c r="W23" s="1">
-        <v>1323.820000</v>
+        <v>1323.82</v>
       </c>
       <c r="X23" s="1">
-        <v>-167.772000</v>
+        <v>-167.77199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>51730.874552</v>
+        <v>51730.874552000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>14.369687</v>
+        <v>14.369687000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1342.300000</v>
+        <v>1342.3</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.332000</v>
+        <v>-167.33199999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>51741.411029</v>
+        <v>51741.411029000003</v>
       </c>
       <c r="AF23" s="1">
         <v>14.372614</v>
       </c>
       <c r="AG23" s="1">
-        <v>1355.850000</v>
+        <v>1355.85</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.597000</v>
+        <v>-177.59700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>51751.667341</v>
@@ -5983,58 +6399,58 @@
         <v>14.375463</v>
       </c>
       <c r="AL23" s="1">
-        <v>1376.970000</v>
+        <v>1376.97</v>
       </c>
       <c r="AM23" s="1">
-        <v>-207.702000</v>
+        <v>-207.702</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>51762.240521</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.378400</v>
+        <v>14.378399999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1398.920000</v>
+        <v>1398.92</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.524000</v>
+        <v>-251.524</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>51772.991805</v>
+        <v>51772.991804999998</v>
       </c>
       <c r="AU23" s="1">
         <v>14.381387</v>
       </c>
       <c r="AV23" s="1">
-        <v>1423.640000</v>
+        <v>1423.64</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.309000</v>
+        <v>-311.30900000000003</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>51783.957894</v>
+        <v>51783.957893999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>14.384433</v>
       </c>
       <c r="BA23" s="1">
-        <v>1443.150000</v>
+        <v>1443.15</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.147000</v>
+        <v>-363.14699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>51794.994863</v>
@@ -6043,285 +6459,285 @@
         <v>14.387499</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.820000</v>
+        <v>1528.82</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.973000</v>
+        <v>-609.97299999999996</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>51806.248064</v>
+        <v>51806.248063999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.390624</v>
+        <v>14.390624000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1051.530000</v>
+        <v>-1051.53</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>51816.833713</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.393565</v>
+        <v>14.393565000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.880000</v>
+        <v>1978.88</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1814.790000</v>
+        <v>-1814.79</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>51827.537843</v>
+        <v>51827.537842999998</v>
       </c>
       <c r="BT23" s="1">
         <v>14.396538</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.070000</v>
+        <v>2369.0700000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2694.290000</v>
+        <v>-2694.29</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>51838.554486</v>
+        <v>51838.554486000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.399598</v>
+        <v>14.399597999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2849.790000</v>
+        <v>2849.79</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3651.370000</v>
+        <v>-3651.37</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>51851.805604</v>
+        <v>51851.805604000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.403279</v>
+        <v>14.403278999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4264.340000</v>
+        <v>4264.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5963.820000</v>
+        <v>-5963.82</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>51679.303975</v>
+        <v>51679.303975000003</v>
       </c>
       <c r="B24" s="1">
         <v>14.355362</v>
       </c>
       <c r="C24" s="1">
-        <v>1239.010000</v>
+        <v>1239.01</v>
       </c>
       <c r="D24" s="1">
-        <v>-279.531000</v>
+        <v>-279.53100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>51689.756203</v>
+        <v>51689.756202999997</v>
       </c>
       <c r="G24" s="1">
         <v>14.358266</v>
       </c>
       <c r="H24" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="I24" s="1">
-        <v>-245.311000</v>
+        <v>-245.31100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>51700.581388</v>
+        <v>51700.581387999999</v>
       </c>
       <c r="L24" s="1">
-        <v>14.361273</v>
+        <v>14.361273000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1296.370000</v>
+        <v>1296.3699999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-194.221000</v>
+        <v>-194.221</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>51710.824734</v>
+        <v>51710.824734000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>14.364118</v>
+        <v>14.364117999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1309.270000</v>
+        <v>1309.27</v>
       </c>
       <c r="S24" s="1">
-        <v>-179.042000</v>
+        <v>-179.042</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>51720.988256</v>
+        <v>51720.988255999997</v>
       </c>
       <c r="V24" s="1">
-        <v>14.366941</v>
+        <v>14.366941000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1323.830000</v>
+        <v>1323.83</v>
       </c>
       <c r="X24" s="1">
-        <v>-167.989000</v>
+        <v>-167.989</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>51731.258916</v>
+        <v>51731.258915999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.369794</v>
+        <v>14.369794000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1342.350000</v>
+        <v>1342.35</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.428000</v>
+        <v>-167.428</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>51741.756272</v>
+        <v>51741.756271999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.372710</v>
+        <v>14.37271</v>
       </c>
       <c r="AG24" s="1">
-        <v>1355.900000</v>
+        <v>1355.9</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.562000</v>
+        <v>-177.56200000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>51752.015993</v>
+        <v>51752.015993000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.375560</v>
+        <v>14.37556</v>
       </c>
       <c r="AL24" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM24" s="1">
-        <v>-207.710000</v>
+        <v>-207.71</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>51762.596649</v>
+        <v>51762.596648999999</v>
       </c>
       <c r="AP24" s="1">
         <v>14.378499</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1398.910000</v>
+        <v>1398.91</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.552000</v>
+        <v>-251.55199999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>51773.421340</v>
+        <v>51773.421340000001</v>
       </c>
       <c r="AU24" s="1">
         <v>14.381506</v>
       </c>
       <c r="AV24" s="1">
-        <v>1423.650000</v>
+        <v>1423.65</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.265000</v>
+        <v>-311.26499999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>51784.430088</v>
+        <v>51784.430088000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>14.384564</v>
+        <v>14.384563999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1443.100000</v>
+        <v>1443.1</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.169000</v>
+        <v>-363.16899999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>51795.297421</v>
+        <v>51795.297421000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.387583</v>
+        <v>14.387582999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.790000</v>
+        <v>1528.79</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.986000</v>
+        <v>-609.98599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>51806.621551</v>
+        <v>51806.621550999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.390728</v>
+        <v>14.390727999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.760000</v>
+        <v>1683.76</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1051.390000</v>
+        <v>-1051.3900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>51817.253826</v>
@@ -6330,120 +6746,120 @@
         <v>14.393682</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.670000</v>
+        <v>1978.67</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1814.870000</v>
+        <v>-1814.87</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>51827.972836</v>
+        <v>51827.972836000001</v>
       </c>
       <c r="BT24" s="1">
         <v>14.396659</v>
       </c>
       <c r="BU24" s="1">
-        <v>2369.120000</v>
+        <v>2369.12</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2693.590000</v>
+        <v>-2693.59</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>51839.003860</v>
+        <v>51839.003859999997</v>
       </c>
       <c r="BY24" s="1">
         <v>14.399723</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2848.970000</v>
+        <v>2848.97</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3651.250000</v>
+        <v>-3651.25</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>51852.318963</v>
+        <v>51852.318962999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.403422</v>
+        <v>14.403422000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4273.350000</v>
+        <v>4273.3500000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5949.660000</v>
+        <v>-5949.66</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>51679.644231</v>
+        <v>51679.644230999998</v>
       </c>
       <c r="B25" s="1">
-        <v>14.355457</v>
+        <v>14.355456999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1239.170000</v>
+        <v>1239.17</v>
       </c>
       <c r="D25" s="1">
-        <v>-279.454000</v>
+        <v>-279.45400000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>51690.405433</v>
       </c>
       <c r="G25" s="1">
-        <v>14.358446</v>
+        <v>14.358446000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1261.350000</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-244.919000</v>
+        <v>-244.91900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>51700.961788</v>
+        <v>51700.961788000001</v>
       </c>
       <c r="L25" s="1">
         <v>14.361378</v>
       </c>
       <c r="M25" s="1">
-        <v>1296.410000</v>
+        <v>1296.4100000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-194.382000</v>
+        <v>-194.38200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>51711.211117</v>
+        <v>51711.211116999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>14.364225</v>
+        <v>14.364224999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1309.280000</v>
+        <v>1309.28</v>
       </c>
       <c r="S25" s="1">
-        <v>-179.062000</v>
+        <v>-179.06200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>51721.334464</v>
@@ -6452,452 +6868,453 @@
         <v>14.367037</v>
       </c>
       <c r="W25" s="1">
-        <v>1323.480000</v>
+        <v>1323.48</v>
       </c>
       <c r="X25" s="1">
-        <v>-167.879000</v>
+        <v>-167.87899999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>51731.610082</v>
+        <v>51731.610081999999</v>
       </c>
       <c r="AA25" s="1">
         <v>14.369892</v>
       </c>
       <c r="AB25" s="1">
-        <v>1342.350000</v>
+        <v>1342.35</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.456000</v>
+        <v>-167.45599999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>51742.098484</v>
+        <v>51742.098484000002</v>
       </c>
       <c r="AF25" s="1">
         <v>14.372805</v>
       </c>
       <c r="AG25" s="1">
-        <v>1355.780000</v>
+        <v>1355.78</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.604000</v>
+        <v>-177.60400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>51752.442087</v>
+        <v>51752.442087000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.375678</v>
+        <v>14.375678000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM25" s="1">
-        <v>-207.704000</v>
+        <v>-207.70400000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>51763.023706</v>
       </c>
       <c r="AP25" s="1">
-        <v>14.378618</v>
+        <v>14.378617999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1398.890000</v>
+        <v>1398.89</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.513000</v>
+        <v>-251.51300000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>51773.721914</v>
+        <v>51773.721914000002</v>
       </c>
       <c r="AU25" s="1">
         <v>14.381589</v>
       </c>
       <c r="AV25" s="1">
-        <v>1423.660000</v>
+        <v>1423.66</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.301000</v>
+        <v>-311.30099999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>51784.678044</v>
       </c>
       <c r="AZ25" s="1">
-        <v>14.384633</v>
+        <v>14.384632999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1443.110000</v>
+        <v>1443.11</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.201000</v>
+        <v>-363.20100000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>51795.656990</v>
+        <v>51795.656990000003</v>
       </c>
       <c r="BE25" s="1">
         <v>14.387682</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.800000</v>
+        <v>1528.8</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.972000</v>
+        <v>-609.97199999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>51806.998514</v>
+        <v>51806.998513999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>14.390833</v>
+        <v>14.390833000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.840000</v>
+        <v>1683.84</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1051.460000</v>
+        <v>-1051.46</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>51817.648129</v>
+        <v>51817.648129000001</v>
       </c>
       <c r="BO25" s="1">
         <v>14.393791</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.770000</v>
+        <v>1978.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1814.860000</v>
+        <v>-1814.86</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>51828.403858</v>
+        <v>51828.403857999998</v>
       </c>
       <c r="BT25" s="1">
         <v>14.396779</v>
       </c>
       <c r="BU25" s="1">
-        <v>2368.810000</v>
+        <v>2368.81</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2692.840000</v>
+        <v>-2692.84</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>51839.423507</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.399840</v>
+        <v>14.399839999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2848.840000</v>
+        <v>2848.84</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3652.090000</v>
+        <v>-3652.09</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>51852.840755</v>
+        <v>51852.840754999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.403567</v>
+        <v>14.403567000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4259.850000</v>
+        <v>4259.8500000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5942.500000</v>
+        <v>-5942.5</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>51680.296966</v>
+        <v>51680.296966000002</v>
       </c>
       <c r="B26" s="1">
-        <v>14.355638</v>
+        <v>14.355638000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-279.439000</v>
+        <v>-279.43900000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>51690.789832</v>
+        <v>51690.789832000002</v>
       </c>
       <c r="G26" s="1">
-        <v>14.358553</v>
+        <v>14.358553000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="I26" s="1">
-        <v>-244.953000</v>
+        <v>-244.953</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>51701.307012</v>
+        <v>51701.307011999997</v>
       </c>
       <c r="L26" s="1">
-        <v>14.361474</v>
+        <v>14.361473999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1296.380000</v>
+        <v>1296.3800000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-194.092000</v>
+        <v>-194.09200000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>51711.564764</v>
+        <v>51711.564764000002</v>
       </c>
       <c r="Q26" s="1">
         <v>14.364324</v>
       </c>
       <c r="R26" s="1">
-        <v>1309.300000</v>
+        <v>1309.3</v>
       </c>
       <c r="S26" s="1">
-        <v>-179.186000</v>
+        <v>-179.18600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>51721.678721</v>
+        <v>51721.678720999997</v>
       </c>
       <c r="V26" s="1">
-        <v>14.367133</v>
+        <v>14.367133000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1323.690000</v>
+        <v>1323.69</v>
       </c>
       <c r="X26" s="1">
-        <v>-167.845000</v>
+        <v>-167.845</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>51731.958769</v>
+        <v>51731.958768999997</v>
       </c>
       <c r="AA26" s="1">
         <v>14.369989</v>
       </c>
       <c r="AB26" s="1">
-        <v>1342.340000</v>
+        <v>1342.34</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.221000</v>
+        <v>-167.221</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>51742.530995</v>
+        <v>51742.530995000001</v>
       </c>
       <c r="AF26" s="1">
         <v>14.372925</v>
       </c>
       <c r="AG26" s="1">
-        <v>1355.960000</v>
+        <v>1355.96</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.493000</v>
+        <v>-177.49299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>51752.700470</v>
+        <v>51752.700470000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.375750</v>
+        <v>14.37575</v>
       </c>
       <c r="AL26" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM26" s="1">
-        <v>-207.743000</v>
+        <v>-207.74299999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>51763.308408</v>
+        <v>51763.308407999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.378697</v>
+        <v>14.378697000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1398.900000</v>
+        <v>1398.9</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.507000</v>
+        <v>-251.50700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>51774.085483</v>
+        <v>51774.085483000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.381690</v>
+        <v>14.381690000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1423.640000</v>
+        <v>1423.64</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.330000</v>
+        <v>-311.33</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>51785.033686</v>
+        <v>51785.033686000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.384732</v>
       </c>
       <c r="BA26" s="1">
-        <v>1443.080000</v>
+        <v>1443.08</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.192000</v>
+        <v>-363.19200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>51796.018605</v>
+        <v>51796.018604999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.387783</v>
+        <v>14.387783000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.810000</v>
+        <v>1528.81</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.968000</v>
+        <v>-609.96799999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>51807.749982</v>
+        <v>51807.749982000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.391042</v>
+        <v>14.391042000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.770000</v>
+        <v>1683.77</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1051.410000</v>
+        <v>-1051.4100000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>51818.067728</v>
+        <v>51818.067728000002</v>
       </c>
       <c r="BO26" s="1">
         <v>14.393908</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.800000</v>
+        <v>1978.8</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1814.710000</v>
+        <v>-1814.71</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>51828.813560</v>
+        <v>51828.813560000002</v>
       </c>
       <c r="BT26" s="1">
         <v>14.396893</v>
       </c>
       <c r="BU26" s="1">
-        <v>2368.660000</v>
+        <v>2368.66</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2691.940000</v>
+        <v>-2691.94</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>51839.846595</v>
+        <v>51839.846595000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.399957</v>
+        <v>14.399957000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2849.780000</v>
+        <v>2849.78</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3651.340000</v>
+        <v>-3651.34</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>51853.663657</v>
+        <v>51853.663656999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.403795</v>
+        <v>14.403795000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4255.640000</v>
+        <v>4255.6400000000003</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5955.750000</v>
+        <v>-5955.75</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>